--- a/allPages/allPagesUA.xlsx
+++ b/allPages/allPagesUA.xlsx
@@ -19,7 +19,7 @@
     <t>15.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/business_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/business_in_ukraine</t>
   </si>
   <si>
     <t>x</t>
@@ -34,7 +34,7 @@
     <t>14.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/usefull</t>
+    <t>https://t-h-logistics.com/ua/usefull</t>
   </si>
   <si>
     <t>Корисні матеріали з митного оформлення та доставки вантажів: поради та інструкції</t>
@@ -43,7 +43,7 @@
     <t>митне оформлення вантажів, інструкції з доставки вантажів, логістика та митне оформлення, успішна доставка вантажів, як доставити вантаж через митницю, логістика та митне оформлення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs</t>
+    <t>https://t-h-logistics.com/ua/customs</t>
   </si>
   <si>
     <t>Митний брокер і митне оформлення в Києві, Одесі, Львові</t>
@@ -52,7 +52,7 @@
     <t>митне оформлення Київ, послуги митного оформлення Львів, митний брокер Одеса, розрахунок митних платежів, супровід вантажів, митні документи, митні послуги, митні документи</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/sea</t>
+    <t>https://t-h-logistics.com/ua/sea</t>
   </si>
   <si>
     <t>Морські контейнерні перевезення і доставка вантажів зі США та Китаю в Україну</t>
@@ -61,7 +61,7 @@
     <t>доставка вантажів зі США в Україну, морські контейнерні перевезення, доставка з Китаю в Україну, контейнерні перевезення Україна, морська доставка з Китаю, міжнародні морські перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/air</t>
+    <t>https://t-h-logistics.com/ua/air</t>
   </si>
   <si>
     <t>Авіа доставка та авіаперевезення вантажів в Україну: швидко і надійно</t>
@@ -70,7 +70,7 @@
     <t>авіаперевезення вантажів Україна, авіа доставка в Україну, міжнародна авіадоставка, транспортування вантажів літаком, авіа логістика Україна, Експрес-доставка авіа, Авіафрахт, Авіафрахт, Авіаперевезення вантажів, Авіа логістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/truck</t>
+    <t>https://t-h-logistics.com/ua/truck</t>
   </si>
   <si>
     <t>Автоперевезення і доставка вантажів з Європи: швидкі та безпечні рішення</t>
@@ -82,7 +82,7 @@
     <t>25.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
     <t>["Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки","Підсумковий Розрахунок","Висновок"]</t>
@@ -94,7 +94,7 @@
     <t>Створення фірми в Україні, реєстрація юридичної особи, витрати на відкриття компанії, вартість реєстрації бізнесу, витрати на юридичну особу, бюджет для реєстрації фірми, вартість реєстрації бізнесу</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/hr_search_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/hr_search_in_ukraine</t>
   </si>
   <si>
     <t>["Пошук Персоналу в Україні","Чому Пошук Персоналу важливий","Етапи Пошуку Персоналу","Висновок"]</t>
@@ -106,7 +106,7 @@
     <t>підбір персоналу, рекрутинг в Україні, HR-послуги, кадрове агентство, працевлаштування в Україні, управління персоналом, пошук фахівців, кадровий консалтинг, HR-консультації, персональні ресурси України</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/tax_reporting_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/tax_reporting_in_ukraine</t>
   </si>
   <si>
     <t>["Податкова звітність в Україні","Основні види податкових звітів для юридичних осіб:"]</t>
@@ -121,7 +121,7 @@
     <t>24.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/bank_account_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/bank_account_in_ukraine</t>
   </si>
   <si>
     <t>["Відкриття та Ведення Банківського Рахунку для Юридичних Осіб в Україні"]</t>
@@ -133,7 +133,7 @@
     <t>бізнес-рахунок, корпоративний рахунок, банківські послуги для компаній, банківське обслуговування юридичних осіб, фінансова діяльність організацій, рахунок у банку України, відкриття рахунку для підприємства, банківські послуги для фірм</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/taxation_forms_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/taxation_forms_in_ukraine</t>
   </si>
   <si>
     <t>["Форми оподаткування в Україні: Як обрати оптимальний податковий режим для вашого бізнесу"]</t>
@@ -148,7 +148,7 @@
     <t>23.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/legal_address_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/legal_address_in_ukraine</t>
   </si>
   <si>
     <t>["Юридична Адреса в Україні: важливе рішення для Вашого Бізнесу","1. Репутація Компанії","2. Можливості Для Розвитку","3. податкові зобов'язання","4. Поштова кореспонденція"]</t>
@@ -160,7 +160,7 @@
     <t>адреса реєстрації в Україні, реєстрація юридичної адреси, податкова адреса, офісний простір, юридична реєстрація, вибір місця розташування, репутація компанії, податкові зобов'язання</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/main_forms_of_ownership_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
     <t>["Форми власності в Україні: яка підходить у Вашому випадку?","1. Індивідуальне Підприємництво або Фізична Особа Підприємець (ФОП)","2. Товариство з обмеженою відповідальністю (ТОВ)","3. Акціонерне Товариство (АТ)","4. Кооперативи"]</t>
@@ -172,7 +172,7 @@
     <t>власність в Україні, реєстрація власності, правила власності, форми власності в бізнесі, володіння нерухомістю, власність і податки, види власності</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/opening_a_company_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/opening_a_company_in_ukraine</t>
   </si>
   <si>
     <t>["Відкриття Фірми в Україні: Повне Керівництво для Підприємців"]</t>
@@ -187,7 +187,7 @@
     <t>22.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/trade_agent_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/trade_agent_in_ukraine</t>
   </si>
   <si>
     <t>["Торговий Агент в Україні: Ваш Партнер у Світовій торгівлі","Хто такий Торговий Агент?","Переваги Роботи з Торговим Агентом в Україні","Висновки"]</t>
@@ -196,7 +196,7 @@
     <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/foreign_trade_consulting</t>
+    <t>https://t-h-logistics.com/ua/foreign_trade_consulting</t>
   </si>
   <si>
     <t>["Консультації ЗЕД: Ключ до Успішної Міжнародної Торгівлі","Що собою являють Консультації ЗЕД?","Переваги Консультацій ЗЕД ","Висновки "]</t>
@@ -211,7 +211,7 @@
     <t>21.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/multimodal_transportation</t>
+    <t>https://t-h-logistics.com/ua/multimodal_transportation</t>
   </si>
   <si>
     <t>["Мультимодальні Перевезення в Україні ","Що таке мультимодальні перевезення? ","Переваги мультимодальних перевезень ","Мультимодальні перевезення в Україні "]</t>
@@ -226,7 +226,7 @@
     <t>19.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/airfreight_costs</t>
+    <t>https://t-h-logistics.com/ua/airfreight_costs</t>
   </si>
   <si>
     <t>["Вартість Авіаперевезення"]</t>
@@ -241,7 +241,7 @@
     <t>15.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cargo_delivery_from_Europe</t>
+    <t>https://t-h-logistics.com/ua/cargo_delivery_from_Europe</t>
   </si>
   <si>
     <t>["Доставка вантажів з Європи","Розвинена Інфраструктура та Логістика","Безліч постачальників і ринкова варіативність","Дотримання Норм і Правил","Співпраця з професіоналами","Висновки"]</t>
@@ -256,7 +256,7 @@
     <t>13.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/port_forwarding</t>
+    <t>https://t-h-logistics.com/ua/port_forwarding</t>
   </si>
   <si>
     <t>["Портове Експедирування в Україні: Ваш Шлях до Ефективної Логістики","Основні послуги портового експедирування "]</t>
@@ -268,7 +268,7 @@
     <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_brokerage_services_cost</t>
+    <t>https://t-h-logistics.com/ua/customs_brokerage_services_cost</t>
   </si>
   <si>
     <t>["Вартість Послуг Митного Брокера в Україні","Що впливає на вартість послуг Митного Брокера? ","Чому співпраця з Митним Брокером - це вигідно? ","Переваги Наших Послуг у Києві, Одесі та Львові ","Орієнтовна вартість послуг митного брокера"]</t>
@@ -280,7 +280,7 @@
     <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker</t>
+    <t>https://t-h-logistics.com/ua/customs_broker</t>
   </si>
   <si>
     <t>["Митний брокер: Ваш надійний партнер у Києві, Одесі та Львові","Хто такий митний брокер?","Послуги митного брокера ","Чому обирають нас?","Митний брокер у Києві","Митний брокер в Одесі","Митний брокер у Львові","Переваги роботи з нами "]</t>
@@ -295,7 +295,7 @@
     <t>12.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/fqas</t>
+    <t>https://t-h-logistics.com/ua/fqas</t>
   </si>
   <si>
     <t>["Часті запитання ","Що таке Часті запитання (FAQs)?"," ","Часті запитання та Відповіді"," ","Висновок"]</t>
@@ -307,7 +307,7 @@
     <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/help</t>
+    <t>https://t-h-logistics.com/ua/help</t>
   </si>
   <si>
     <t>["Допомога та Служба Підтримки","Запитання, що часто ставляться","Як ми можемо допомогти?","Контакти Служби Підтримки","Висновок"]</t>
@@ -319,7 +319,7 @@
     <t>служба підтримки, клієнтська підтримка, допомога клієнтам, поширені запитання, контакти служби підтримки, підтримка клієнтів, зворотний зв'язок, допомога в доставці вантажів, консультація клієнтів, технічна підтримка</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cookies</t>
+    <t>https://t-h-logistics.com/ua/cookies</t>
   </si>
   <si>
     <t>["Cookies"]</t>
@@ -331,7 +331,7 @@
     <t>05.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/terms_conditions</t>
+    <t>https://t-h-logistics.com/ua/terms_conditions</t>
   </si>
   <si>
     <t>["Умови використання","Правила використання","Відповідальність","Зміни в Умовах","Зв'яжіться з Нами","Висновок"]</t>
@@ -343,7 +343,7 @@
     <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/privacy_policy</t>
+    <t>https://t-h-logistics.com/ua/privacy_policy</t>
   </si>
   <si>
     <t>["Політика Конфіденційності","Собор Інформації","Використання Інформації","Захист Інформації","Доступ і Контроль","Зв'язок з Нами","Зміни в Політиці Конфіденційності","Висновок"]</t>
@@ -355,7 +355,7 @@
     <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/about_us</t>
+    <t>https://t-h-logistics.com/ua/about_us</t>
   </si>
   <si>
     <t>["Транс-Хоуп  ","Наші Принципи","Наші Послуги","Контакти"]</t>
@@ -367,7 +367,7 @@
     <t>Про нас</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_clearance</t>
+    <t>https://t-h-logistics.com/ua/customs_clearance</t>
   </si>
   <si>
     <t>["Митне оформлення: Швидко, Надійно, Професійно ","Чому обирають Нас","Наші Послуги","Чому Митне Оформлення важливе","Як Ми Працюємо","Наші Переваги"]</t>
@@ -376,7 +376,7 @@
     <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/container_delivery</t>
+    <t>https://t-h-logistics.com/ua/container_delivery</t>
   </si>
   <si>
     <t>["Морські контейнерні перевезення: Надійність та Економія","Переваги морських контейнерних перевезень "]</t>
@@ -388,7 +388,7 @@
     <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/truck_delivery</t>
+    <t>https://t-h-logistics.com/ua/truck_delivery</t>
   </si>
   <si>
     <t>["Авто перевезення"]</t>
@@ -403,7 +403,7 @@
     <t>04.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/air_delivery</t>
+    <t>https://t-h-logistics.com/ua/air_delivery</t>
   </si>
   <si>
     <t>["Авіа перевезення"]</t>
@@ -418,7 +418,7 @@
     <t>Page Seo</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/sea_container_freight_rate</t>
+    <t>https://t-h-logistics.com/ua/sea_container_freight_rate</t>
   </si>
   <si>
     <t>["Вартість Перевезення Контейнера Морем","Фактори, що впливають на вартість морського перевезення контейнерів"]</t>
@@ -430,7 +430,7 @@
     <t>ціна морського перевезення контейнерів, тарифи на морське перевезення, вартість вантажоперевезень морем, розцінки на перевезення морським контейнером, тарифи на контейнерні перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/container_freight_rate</t>
+    <t>https://t-h-logistics.com/ua/container_freight_rate</t>
   </si>
   <si>
     <t>["Фрахт Контейнера: ключові аспекти і вартість вантажоперевезень"]</t>
@@ -442,7 +442,7 @@
     <t>вартість фрахту морських контейнерів, розцінки на контейнерний фрахт, тарифи на вантажоперевезення контейнерами, ціни на морські перевезення, фрахтові тарифи</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/intermodal_transportation</t>
+    <t>https://t-h-logistics.com/ua/intermodal_transportation</t>
   </si>
   <si>
     <t>["Інтермодальні Перевезення"]</t>
@@ -454,7 +454,7 @@
     <t>інтермодальні вантажоперевезення, мультимодальні перевезення, комбіновані перевезення, перевезення вантажів різними видами транспорту</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker_services_price</t>
+    <t>https://t-h-logistics.com/ua/customs_broker_services_price</t>
   </si>
   <si>
     <t>["Послуги митного брокера ціна"]</t>
@@ -469,7 +469,7 @@
     <t>02.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker_kyiv</t>
+    <t>https://t-h-logistics.com/ua/customs_broker_kyiv</t>
   </si>
   <si>
     <t>["Митний Брокер Київ"]</t>
@@ -487,7 +487,7 @@
     <t>18.03.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/sections_purchase_sale_agreement</t>
+    <t>https://t-h-logistics.com/ua/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
     <t>Розділи договору купівлі-продажу ЗЕД</t>
@@ -496,7 +496,7 @@
     <t>договір купівлі-продажу, розділи, умови поставки, ціна товару, платежі, ризики, виконання контракту, захист інтересів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/procedure_filling_customs_declaration</t>
+    <t>https://t-h-logistics.com/ua/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
     <t>Порядок заповнення митної декларації - Україна</t>
@@ -505,7 +505,7 @@
     <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_control</t>
+    <t>https://t-h-logistics.com/ua/info/customs_control</t>
   </si>
   <si>
     <t>["Митний контроль"]</t>
@@ -520,7 +520,7 @@
     <t>13.03.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_broker_license</t>
+    <t>https://t-h-logistics.com/ua/info/customs_broker_license</t>
   </si>
   <si>
     <t>["Отримання ліцензії на здійснення митно-брокерської діяльності в Україні регулюється наступними наказами:"]</t>
@@ -532,7 +532,7 @@
     <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_regimes_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
     <t>["Митні режими в Україні"]</t>
@@ -547,7 +547,7 @@
     <t>21.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_accreditation</t>
+    <t>https://t-h-logistics.com/ua/info/customs_accreditation</t>
   </si>
   <si>
     <t>["Акредитація на митниці онлайн "]</t>
@@ -559,7 +559,7 @@
     <t>акредитація митниця, онлайн акредитація, процедура акредитації, митні процедури, документи для митниці, митні послуги, документи для митниці</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/certificate_of_origin_EUR.1</t>
+    <t>https://t-h-logistics.com/ua/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
     <t>["Сертифікат походження EUR.1"]</t>
@@ -574,7 +574,7 @@
     <t>16.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/certificate_of_origin_base</t>
+    <t>https://t-h-logistics.com/ua/info/certificate_of_origin_base</t>
   </si>
   <si>
     <t>["Країна походження товару та Сертифікат походження"]</t>
@@ -586,7 +586,7 @@
     <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/example_of_foreign_economic_contract</t>
+    <t>https://t-h-logistics.com/ua/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
     <t>["Зовнішньоекономічний Договір купівлі-продажу, зразок"]</t>
@@ -601,7 +601,7 @@
     <t>15.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_cost</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_cost</t>
   </si>
   <si>
     <t>["Пакет документів для підтвердження митної вартості при імпорті товарів."]</t>
@@ -613,7 +613,7 @@
     <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_export</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_export</t>
   </si>
   <si>
     <t>["Документи для експорту товарів"]</t>
@@ -625,7 +625,7 @@
     <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_import</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_import</t>
   </si>
   <si>
     <t>["Пакет документів при імпорті товарів"]</t>
@@ -640,7 +640,7 @@
     <t>14.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_useful</t>
+    <t>https://t-h-logistics.com/ua/info/customs_useful</t>
   </si>
   <si>
     <t>Митне оформлення: Ключова інформація та Експертні Поради</t>
@@ -655,7 +655,7 @@
     <t>26.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/kak-raschitat-stoimost-rastamozhki</t>
+    <t>https://t-h-logistics.com/ua/blog/kak-raschitat-stoimost-rastamozhki</t>
   </si>
   <si>
     <t>Як розрахувати вартість розмитнення і дізнатися суму митних платежів на митницю.</t>
@@ -664,7 +664,7 @@
     <t>розрахунок вартості розмитнення, сума митних платежів, митні збори, ПДВ на митниці, митні збори, оформлення вантажу на митниці, імпортні мита, митні платежі, як розрахувати розмитнення, розрахунок митних зборів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/the-economics-of-low-cost-delivery-services</t>
+    <t>https://t-h-logistics.com/ua/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
     <t>["Лоукостери авіадоставки вантажів в Україну.","Зниження витрат ","Підвищення доходів "]</t>
@@ -679,7 +679,7 @@
     <t>09.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-to-find-the-customs-code-of-goods</t>
+    <t>https://t-h-logistics.com/ua/blog/how-to-find-the-customs-code-of-goods</t>
   </si>
   <si>
     <t>Як підібрати митний код товару</t>
@@ -691,7 +691,7 @@
     <t>05.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
+    <t>https://t-h-logistics.com/ua/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
   </si>
   <si>
     <t>Способи доставки контейнерів з Китаю в Україну</t>
@@ -703,7 +703,7 @@
     <t>03.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
+    <t>https://t-h-logistics.com/ua/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
     <t>Як обрати КАРГО перевізника і отримати багато проблем.</t>
@@ -715,7 +715,7 @@
     <t>30.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+    <t>https://t-h-logistics.com/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
     <t>["Як написати запит китайському постачальнику товарів?"]</t>
@@ -730,7 +730,7 @@
     <t>15.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/searching-for-suppliers-in-china</t>
+    <t>https://t-h-logistics.com/ua/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
     <t>["Пошук постачальників у Китаї"]</t>
@@ -748,7 +748,7 @@
     <t>28.09.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
+    <t>https://t-h-logistics.com/ua/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
   </si>
   <si>
     <t>Митні платежі України в серпні 2024 року досягли 51,1 млрд грн</t>
@@ -757,7 +757,7 @@
     <t>митні платежі, Україна, серпень 2024, державний бюджет, пільги, оподатковуваний імпорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
+    <t>https://t-h-logistics.com/ua/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
   </si>
   <si>
     <t>Обмеження руху на кордоні з Угорщиною на два тижні</t>
@@ -766,7 +766,7 @@
     <t>кордон, Угорщина, обмеження, Чоп-Загонь, ремонт</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/collision_of_cargo_ship_pallada_near_turkey</t>
+    <t>https://t-h-logistics.com/ua/news/collision_of_cargo_ship_pallada_near_turkey</t>
   </si>
   <si>
     <t>Аварія сухогруза Pallada біля берегів Туреччини: всі деталі інциденту</t>
@@ -775,7 +775,7 @@
     <t>сухогруз Pallada, аварія, Туреччина, рятувальна операція, шторм, наслідки</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/corruption_scandal_msc_odessa_port</t>
+    <t>https://t-h-logistics.com/ua/news/corruption_scandal_msc_odessa_port</t>
   </si>
   <si>
     <t>Корупційний скандал: чому MSC відмовилася від заходу в Одесу</t>
@@ -784,7 +784,7 @@
     <t>MSC, корупція, порт Одеси, затримка вантажів, міжнародна логістика</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/odesa_ports_export_2024</t>
+    <t>https://t-h-logistics.com/ua/news/odesa_ports_export_2024</t>
   </si>
   <si>
     <t>Експорт портів Великої Одеси перевищив 60 мільйонів тонн за 2024 рік</t>

--- a/allPages/allPagesUA.xlsx
+++ b/allPages/allPagesUA.xlsx
@@ -11,7 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="263">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Headlines</t>
+  </si>
+  <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
   <si>
     <t>Pages</t>
   </si>
@@ -25,6 +43,9 @@
     <t>x</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Послуги ЗЕД, доставки та розмитнення вантажів в Україні в містах Київ, Львів, Одеса</t>
   </si>
   <si>
@@ -85,7 +106,7 @@
     <t>http://localhost:3000/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
-    <t>["Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки","Підсумковий Розрахунок","Висновок"]</t>
+    <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки, Підсумковий Розрахунок, Висновок</t>
   </si>
   <si>
     <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки</t>
@@ -97,7 +118,7 @@
     <t>http://localhost:3000/ua/hr_search_in_ukraine</t>
   </si>
   <si>
-    <t>["Пошук Персоналу в Україні","Чому Пошук Персоналу важливий","Етапи Пошуку Персоналу","Висновок"]</t>
+    <t>Пошук Персоналу в Україні, Чому Пошук Персоналу важливий, Етапи Пошуку Персоналу, Висновок</t>
   </si>
   <si>
     <t>Ефективний Пошук Персоналу в Україні: Професійні HR-рішення</t>
@@ -109,7 +130,7 @@
     <t>http://localhost:3000/ua/tax_reporting_in_ukraine</t>
   </si>
   <si>
-    <t>["Податкова звітність в Україні","Основні види податкових звітів для юридичних осіб:"]</t>
+    <t>Податкова звітність в Україні, Основні види податкових звітів для юридичних осіб:</t>
   </si>
   <si>
     <t>Податкова Звітність в Україні: Детальний огляд і Правила Підготовки</t>
@@ -124,7 +145,7 @@
     <t>http://localhost:3000/ua/bank_account_in_ukraine</t>
   </si>
   <si>
-    <t>["Відкриття та Ведення Банківського Рахунку для Юридичних Осіб в Україні"]</t>
+    <t>Відкриття та Ведення Банківського Рахунку для Юридичних Осіб в Україні</t>
   </si>
   <si>
     <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні: Повне керівництво</t>
@@ -136,7 +157,7 @@
     <t>http://localhost:3000/ua/taxation_forms_in_ukraine</t>
   </si>
   <si>
-    <t>["Форми оподаткування в Україні: Як обрати оптимальний податковий режим для вашого бізнесу"]</t>
+    <t>Форми оподаткування в Україні: Як обрати оптимальний податковий режим для вашого бізнесу</t>
   </si>
   <si>
     <t>Форми оподаткування в Україні: Як обрати правильний податковий режим для вашого бізнесу</t>
@@ -151,7 +172,7 @@
     <t>http://localhost:3000/ua/legal_address_in_ukraine</t>
   </si>
   <si>
-    <t>["Юридична Адреса в Україні: важливе рішення для Вашого Бізнесу","1. Репутація Компанії","2. Можливості Для Розвитку","3. податкові зобов'язання","4. Поштова кореспонденція"]</t>
+    <t>Юридична Адреса в Україні: важливе рішення для Вашого Бізнесу, 1. Репутація Компанії, 2. Можливості Для Розвитку, 3. податкові зобов'язання, 4. Поштова кореспонденція</t>
   </si>
   <si>
     <t>Юридична адреса в Україні: важливий елемент для Вашого бізнесу</t>
@@ -163,7 +184,7 @@
     <t>http://localhost:3000/ua/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
-    <t>["Форми власності в Україні: яка підходить у Вашому випадку?","1. Індивідуальне Підприємництво або Фізична Особа Підприємець (ФОП)","2. Товариство з обмеженою відповідальністю (ТОВ)","3. Акціонерне Товариство (АТ)","4. Кооперативи"]</t>
+    <t>Форми власності в Україні: яка підходить у Вашому випадку?, 1. Індивідуальне Підприємництво або Фізична Особа Підприємець (ФОП), 2. Товариство з обмеженою відповідальністю (ТОВ), 3. Акціонерне Товариство (АТ), 4. Кооперативи</t>
   </si>
   <si>
     <t>Форми власності в Україні: все, що вам потрібно знати</t>
@@ -175,7 +196,7 @@
     <t>http://localhost:3000/ua/opening_a_company_in_ukraine</t>
   </si>
   <si>
-    <t>["Відкриття Фірми в Україні: Повне Керівництво для Підприємців"]</t>
+    <t>Відкриття Фірми в Україні: Повне Керівництво для Підприємців</t>
   </si>
   <si>
     <t>Відкриття Фірми в Україні: Крок за Кроком Керівництво та Поради</t>
@@ -190,7 +211,7 @@
     <t>http://localhost:3000/ua/trade_agent_in_ukraine</t>
   </si>
   <si>
-    <t>["Торговий Агент в Україні: Ваш Партнер у Світовій торгівлі","Хто такий Торговий Агент?","Переваги Роботи з Торговим Агентом в Україні","Висновки"]</t>
+    <t>Торговий Агент в Україні: Ваш Партнер у Світовій торгівлі, Хто такий Торговий Агент?, Переваги Роботи з Торговим Агентом в Україні, Висновки</t>
   </si>
   <si>
     <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
@@ -199,7 +220,7 @@
     <t>http://localhost:3000/ua/foreign_trade_consulting</t>
   </si>
   <si>
-    <t>["Консультації ЗЕД: Ключ до Успішної Міжнародної Торгівлі","Що собою являють Консультації ЗЕД?","Переваги Консультацій ЗЕД ","Висновки "]</t>
+    <t xml:space="preserve">Консультації ЗЕД: Ключ до Успішної Міжнародної Торгівлі, Що собою являють Консультації ЗЕД?, Переваги Консультацій ЗЕД , Висновки </t>
   </si>
   <si>
     <t>Консультації ЗЕД: Експертне Керівництво із Зовнішньоекономічної Діяльності</t>
@@ -214,7 +235,7 @@
     <t>http://localhost:3000/ua/multimodal_transportation</t>
   </si>
   <si>
-    <t>["Мультимодальні Перевезення в Україні ","Що таке мультимодальні перевезення? ","Переваги мультимодальних перевезень ","Мультимодальні перевезення в Україні "]</t>
+    <t xml:space="preserve">Мультимодальні Перевезення в Україні , Що таке мультимодальні перевезення? , Переваги мультимодальних перевезень , Мультимодальні перевезення в Україні </t>
   </si>
   <si>
     <t>Мультимодальні Перевезення в Україні: Оптимізація Логістики для Вашого Бізнесу</t>
@@ -229,7 +250,7 @@
     <t>http://localhost:3000/ua/airfreight_costs</t>
   </si>
   <si>
-    <t>["Вартість Авіаперевезення"]</t>
+    <t>Вартість Авіаперевезення</t>
   </si>
   <si>
     <t>Вартість Авіаперевезення: Як розрахувати й оптимізувати Ваші витрати</t>
@@ -244,7 +265,7 @@
     <t>http://localhost:3000/ua/cargo_delivery_from_Europe</t>
   </si>
   <si>
-    <t>["Доставка вантажів з Європи","Розвинена Інфраструктура та Логістика","Безліч постачальників і ринкова варіативність","Дотримання Норм і Правил","Співпраця з професіоналами","Висновки"]</t>
+    <t>Доставка вантажів з Європи, Розвинена Інфраструктура та Логістика, Безліч постачальників і ринкова варіативність, Дотримання Норм і Правил, Співпраця з професіоналами, Висновки</t>
   </si>
   <si>
     <t>Доставка вантажів з Європи: Ефективна Логістика для Вашого Бізнесу</t>
@@ -259,7 +280,7 @@
     <t>http://localhost:3000/ua/port_forwarding</t>
   </si>
   <si>
-    <t>["Портове Експедирування в Україні: Ваш Шлях до Ефективної Логістики","Основні послуги портового експедирування "]</t>
+    <t xml:space="preserve">Портове Експедирування в Україні: Ваш Шлях до Ефективної Логістики, Основні послуги портового експедирування </t>
   </si>
   <si>
     <t>Портове Експедирування в Україні - Надійна Логістика Ваших Вантажів</t>
@@ -271,7 +292,7 @@
     <t>http://localhost:3000/ua/customs_brokerage_services_cost</t>
   </si>
   <si>
-    <t>["Вартість Послуг Митного Брокера в Україні","Що впливає на вартість послуг Митного Брокера? ","Чому співпраця з Митним Брокером - це вигідно? ","Переваги Наших Послуг у Києві, Одесі та Львові ","Орієнтовна вартість послуг митного брокера"]</t>
+    <t>Вартість Послуг Митного Брокера в Україні, Що впливає на вартість послуг Митного Брокера? , Чому співпраця з Митним Брокером - це вигідно? , Переваги Наших Послуг у Києві, Одесі та Львові , Орієнтовна вартість послуг митного брокера</t>
   </si>
   <si>
     <t>Вартість Послуг Митного Брокера в Україні: Професійна Допомога та Оптимізація ЗЕД</t>
@@ -283,7 +304,7 @@
     <t>http://localhost:3000/ua/customs_broker</t>
   </si>
   <si>
-    <t>["Митний брокер: Ваш надійний партнер у Києві, Одесі та Львові","Хто такий митний брокер?","Послуги митного брокера ","Чому обирають нас?","Митний брокер у Києві","Митний брокер в Одесі","Митний брокер у Львові","Переваги роботи з нами "]</t>
+    <t xml:space="preserve">Митний брокер: Ваш надійний партнер у Києві, Одесі та Львові, Хто такий митний брокер?, Послуги митного брокера , Чому обирають нас?, Митний брокер у Києві, Митний брокер в Одесі, Митний брокер у Львові, Переваги роботи з нами </t>
   </si>
   <si>
     <t>Митний брокер: Професійні послуги в Києві, Одесі та Львові</t>
@@ -298,7 +319,7 @@
     <t>http://localhost:3000/ua/fqas</t>
   </si>
   <si>
-    <t>["Часті запитання ","Що таке Часті запитання (FAQs)?"," ","Часті запитання та Відповіді"," ","Висновок"]</t>
+    <t>Часті запитання , Що таке Часті запитання (FAQs)?,  , Часті запитання та Відповіді,  , Висновок</t>
   </si>
   <si>
     <t>Запитання, що часто ставляться (FAQs)</t>
@@ -310,7 +331,7 @@
     <t>http://localhost:3000/ua/help</t>
   </si>
   <si>
-    <t>["Допомога та Служба Підтримки","Запитання, що часто ставляться","Як ми можемо допомогти?","Контакти Служби Підтримки","Висновок"]</t>
+    <t>Допомога та Служба Підтримки, Запитання, що часто ставляться, Як ми можемо допомогти?, Контакти Служби Підтримки, Висновок</t>
   </si>
   <si>
     <t>Допомога та Підтримка: Ваш Гід у Світі Доставки та Розмитнення Вантажів</t>
@@ -322,9 +343,6 @@
     <t>http://localhost:3000/ua/cookies</t>
   </si>
   <si>
-    <t>["Cookies"]</t>
-  </si>
-  <si>
     <t>Cookies</t>
   </si>
   <si>
@@ -334,7 +352,7 @@
     <t>http://localhost:3000/ua/terms_conditions</t>
   </si>
   <si>
-    <t>["Умови використання","Правила використання","Відповідальність","Зміни в Умовах","Зв'яжіться з Нами","Висновок"]</t>
+    <t>Умови використання, Правила використання, Відповідальність, Зміни в Умовах, Зв'яжіться з Нами, Висновок</t>
   </si>
   <si>
     <t>Умови використання</t>
@@ -346,7 +364,7 @@
     <t>http://localhost:3000/ua/privacy_policy</t>
   </si>
   <si>
-    <t>["Політика Конфіденційності","Собор Інформації","Використання Інформації","Захист Інформації","Доступ і Контроль","Зв'язок з Нами","Зміни в Політиці Конфіденційності","Висновок"]</t>
+    <t>Політика Конфіденційності, Собор Інформації, Використання Інформації, Захист Інформації, Доступ і Контроль, Зв'язок з Нами, Зміни в Політиці Конфіденційності, Висновок</t>
   </si>
   <si>
     <t>Політика конфіденційності</t>
@@ -358,7 +376,7 @@
     <t>http://localhost:3000/ua/about_us</t>
   </si>
   <si>
-    <t>["Транс-Хоуп  ","Наші Принципи","Наші Послуги","Контакти"]</t>
+    <t>Транс-Хоуп  , Наші Принципи, Наші Послуги, Контакти</t>
   </si>
   <si>
     <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
@@ -370,7 +388,7 @@
     <t>http://localhost:3000/ua/customs_clearance</t>
   </si>
   <si>
-    <t>["Митне оформлення: Швидко, Надійно, Професійно ","Чому обирають Нас","Наші Послуги","Чому Митне Оформлення важливе","Як Ми Працюємо","Наші Переваги"]</t>
+    <t>Митне оформлення: Швидко, Надійно, Професійно , Чому обирають Нас, Наші Послуги, Чому Митне Оформлення важливе, Як Ми Працюємо, Наші Переваги</t>
   </si>
   <si>
     <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
@@ -379,7 +397,7 @@
     <t>http://localhost:3000/ua/container_delivery</t>
   </si>
   <si>
-    <t>["Морські контейнерні перевезення: Надійність та Економія","Переваги морських контейнерних перевезень "]</t>
+    <t xml:space="preserve">Морські контейнерні перевезення: Надійність та Економія, Переваги морських контейнерних перевезень </t>
   </si>
   <si>
     <t>Морські контейнерні перевезення: Надійність та Економія</t>
@@ -391,7 +409,7 @@
     <t>http://localhost:3000/ua/truck_delivery</t>
   </si>
   <si>
-    <t>["Авто перевезення"]</t>
+    <t>Авто перевезення</t>
   </si>
   <si>
     <t>Авто Перевезення: Надійність та Ефективність у Транспортуванні Вашого вантажу</t>
@@ -406,7 +424,7 @@
     <t>http://localhost:3000/ua/air_delivery</t>
   </si>
   <si>
-    <t>["Авіа перевезення"]</t>
+    <t>Авіа перевезення</t>
   </si>
   <si>
     <t>Авіаперевезення: швидко, надійно та ефективно</t>
@@ -421,7 +439,7 @@
     <t>http://localhost:3000/ua/sea_container_freight_rate</t>
   </si>
   <si>
-    <t>["Вартість Перевезення Контейнера Морем","Фактори, що впливають на вартість морського перевезення контейнерів"]</t>
+    <t>Вартість Перевезення Контейнера Морем, Фактори, що впливають на вартість морського перевезення контейнерів</t>
   </si>
   <si>
     <t>Вартість Перевезення Контейнера Морем: надійні та конкурентоспроможні Тарифи</t>
@@ -433,7 +451,7 @@
     <t>http://localhost:3000/ua/container_freight_rate</t>
   </si>
   <si>
-    <t>["Фрахт Контейнера: ключові аспекти і вартість вантажоперевезень"]</t>
+    <t>Фрахт Контейнера: ключові аспекти і вартість вантажоперевезень</t>
   </si>
   <si>
     <t>Фрахт контейнера: Точні ціни та гнучкі умови для вантажоперевезень</t>
@@ -445,7 +463,7 @@
     <t>http://localhost:3000/ua/intermodal_transportation</t>
   </si>
   <si>
-    <t>["Інтермодальні Перевезення"]</t>
+    <t>Інтермодальні Перевезення</t>
   </si>
   <si>
     <t>Інтермодальні Перевезення: Ефективність і Надійність у Глобальній Логістиці</t>
@@ -457,7 +475,7 @@
     <t>http://localhost:3000/ua/customs_broker_services_price</t>
   </si>
   <si>
-    <t>["Послуги митного брокера ціна"]</t>
+    <t>Послуги митного брокера ціна</t>
   </si>
   <si>
     <t>Ціни на Послуги Митного Брокера: Прозорість та Ефективність</t>
@@ -472,7 +490,7 @@
     <t>http://localhost:3000/ua/customs_broker_kyiv</t>
   </si>
   <si>
-    <t>["Митний Брокер Київ"]</t>
+    <t>Митний Брокер Київ</t>
   </si>
   <si>
     <t>Митний брокер Київ: Ефективна Митна Підтримка для Вашого Бізнесу</t>
@@ -508,7 +526,7 @@
     <t>http://localhost:3000/ua/info/customs_control</t>
   </si>
   <si>
-    <t>["Митний контроль"]</t>
+    <t>Митний контроль</t>
   </si>
   <si>
     <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
@@ -523,7 +541,7 @@
     <t>http://localhost:3000/ua/info/customs_broker_license</t>
   </si>
   <si>
-    <t>["Отримання ліцензії на здійснення митно-брокерської діяльності в Україні регулюється наступними наказами:"]</t>
+    <t>Отримання ліцензії на здійснення митно-брокерської діяльності в Україні регулюється наступними наказами:</t>
   </si>
   <si>
     <t>Ліцензія митного брокера</t>
@@ -535,9 +553,6 @@
     <t>http://localhost:3000/ua/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
-    <t>["Митні режими в Україні"]</t>
-  </si>
-  <si>
     <t>Митні режими в Україні</t>
   </si>
   <si>
@@ -550,7 +565,7 @@
     <t>http://localhost:3000/ua/info/customs_accreditation</t>
   </si>
   <si>
-    <t>["Акредитація на митниці онлайн "]</t>
+    <t xml:space="preserve">Акредитація на митниці онлайн </t>
   </si>
   <si>
     <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
@@ -562,7 +577,7 @@
     <t>http://localhost:3000/ua/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
-    <t>["Сертифікат походження EUR.1"]</t>
+    <t>Сертифікат походження EUR.1</t>
   </si>
   <si>
     <t>Сертифікат походження EUR.1 (Евро 1 Euro 1)</t>
@@ -577,7 +592,7 @@
     <t>http://localhost:3000/ua/info/certificate_of_origin_base</t>
   </si>
   <si>
-    <t>["Країна походження товару та Сертифікат походження"]</t>
+    <t>Країна походження товару та Сертифікат походження</t>
   </si>
   <si>
     <t>Сертифікат походження, основи щодо визначення країни походження</t>
@@ -589,7 +604,7 @@
     <t>http://localhost:3000/ua/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
-    <t>["Зовнішньоекономічний Договір купівлі-продажу, зразок"]</t>
+    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок</t>
   </si>
   <si>
     <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
@@ -604,7 +619,7 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_cost</t>
   </si>
   <si>
-    <t>["Пакет документів для підтвердження митної вартості при імпорті товарів."]</t>
+    <t>Пакет документів для підтвердження митної вартості при імпорті товарів.</t>
   </si>
   <si>
     <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
@@ -616,7 +631,7 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_export</t>
   </si>
   <si>
-    <t>["Документи для експорту товарів"]</t>
+    <t>Документи для експорту товарів</t>
   </si>
   <si>
     <t>Пакет документів для експорту товарів</t>
@@ -628,7 +643,7 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_import</t>
   </si>
   <si>
-    <t>["Пакет документів при імпорті товарів"]</t>
+    <t>Пакет документів при імпорті товарів</t>
   </si>
   <si>
     <t>Пакет документів для імпорту товарів</t>
@@ -667,7 +682,7 @@
     <t>http://localhost:3000/ua/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
-    <t>["Лоукостери авіадоставки вантажів в Україну.","Зниження витрат ","Підвищення доходів "]</t>
+    <t xml:space="preserve">Лоукостери авіадоставки вантажів в Україну., Зниження витрат , Підвищення доходів </t>
   </si>
   <si>
     <t>Економіка лоукостерів із доставки вантажів: як авіакомпанії знижують витрати і підвищують доходи.</t>
@@ -718,9 +733,6 @@
     <t>http://localhost:3000/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
-    <t>["Як написати запит китайському постачальнику товарів?"]</t>
-  </si>
-  <si>
     <t>Як написати запит китайському постачальнику товарів?</t>
   </si>
   <si>
@@ -731,9 +743,6 @@
   </si>
   <si>
     <t>http://localhost:3000/ua/blog/searching-for-suppliers-in-china</t>
-  </si>
-  <si>
-    <t>["Пошук постачальників у Китаї"]</t>
   </si>
   <si>
     <t>Пошук постачальників у Китаї</t>
@@ -1167,852 +1176,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
         <v>180</v>
@@ -2023,33 +2056,33 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
         <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>188</v>
@@ -2063,33 +2096,33 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
         <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>197</v>
@@ -2103,166 +2136,181 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
         <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
         <v>222</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>236</v>
@@ -2279,49 +2327,55 @@
         <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
         <v>240</v>
       </c>
       <c r="E64" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" t="s">
         <v>241</v>
       </c>
-      <c r="F64" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
         <v>246</v>
-      </c>
-      <c r="F67" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
         <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>249</v>
@@ -2332,13 +2386,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
         <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
       </c>
       <c r="E69" t="s">
         <v>252</v>
@@ -2349,13 +2406,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
         <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>255</v>
@@ -2366,19 +2426,42 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
         <v>257</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>258</v>
       </c>
       <c r="F71" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesUA.xlsx
+++ b/allPages/allPagesUA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="295">
   <si>
     <t>Date</t>
   </si>
@@ -22,12 +22,15 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Headlines</t>
+    <t>Title</t>
   </si>
   <si>
     <t>SEO Title</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Keywords</t>
   </si>
   <si>
@@ -43,12 +46,12 @@
     <t>x</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Послуги ЗЕД, доставки та розмитнення вантажів в Україні в містах Київ, Львів, Одеса</t>
   </si>
   <si>
+    <t>Професійний торговий агент в Україні, сприяння в імпортно експортних операціях в Україні. Надаємо консультації, надаємо підтримку в митному оформленні та логістиці. Довіртеся нашому досвіду для успішного експорту та імпорту товарів і послуг.</t>
+  </si>
+  <si>
     <t>торговий посередник, зовнішньоторговельний агент, експортний консультант, імпортний брокер, ЗЕД консультації, світова торгівля, міжнародний бізнес, торгівля з Україною, зовнішньоекономічна діяльність</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Корисні матеріали з митного оформлення та доставки вантажів: поради та інструкції</t>
   </si>
   <si>
+    <t>Відкрийте для себе корисні матеріали з митного оформлення та доставки вантажів.</t>
+  </si>
+  <si>
     <t>митне оформлення вантажів, інструкції з доставки вантажів, логістика та митне оформлення, успішна доставка вантажів, як доставити вантаж через митницю, логістика та митне оформлення</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>Митний брокер і митне оформлення в Києві, Одесі, Львові</t>
   </si>
   <si>
+    <t>Митний брокер для митного оформлення в Києві, Одесі чи Львові</t>
+  </si>
+  <si>
     <t>митне оформлення Київ, послуги митного оформлення Львів, митний брокер Одеса, розрахунок митних платежів, супровід вантажів, митні документи, митні послуги, митні документи</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t>Морські контейнерні перевезення і доставка вантажів зі США та Китаю в Україну</t>
   </si>
   <si>
+    <t>Потрібні морські контейнерні перевезення для доставки вантажів зі США та Китаю в Україну? Ми забезпечуємо безпечну і своєчасну доставку товарів морем, гарантуючи повний контроль і надійність на кожному етапі транспортування.</t>
+  </si>
+  <si>
     <t>доставка вантажів зі США в Україну, морські контейнерні перевезення, доставка з Китаю в Україну, контейнерні перевезення Україна, морська доставка з Китаю, міжнародні морські перевезення</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>Авіа доставка та авіаперевезення вантажів в Україну: швидко і надійно</t>
   </si>
   <si>
+    <t>Шукаєте ефективні рішення для авіадоставки та авіаперевезення вантажів в Україну? Ми пропонуємо швидкі, надійні та безпечні авіаперевезення.</t>
+  </si>
+  <si>
     <t>авіаперевезення вантажів Україна, авіа доставка в Україну, міжнародна авіадоставка, транспортування вантажів літаком, авіа логістика Україна, Експрес-доставка авіа, Авіафрахт, Авіафрахт, Авіаперевезення вантажів, Авіа логістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
     <t>Автоперевезення і доставка вантажів з Європи: швидкі та безпечні рішення</t>
   </si>
   <si>
+    <t>Потрібні автоперевезення і доставка вантажів з Європи? Наша компанія пропонує швидкі та безпечні рішення для авто доставки будь-яких вантажів, забезпечуючи оперативність і надійність на кожному етапі транспортування транспортування вашого вантажу з нами.</t>
+  </si>
+  <si>
     <t>авто перевезення з Європи, доставка вантажів авто транспортом, міжнародна авто доставка, транспортування товарів з Європи, авто логістика Європа, доставка вантажів автотранспортом</t>
   </si>
   <si>
@@ -106,36 +124,36 @@
     <t>http://localhost:3000/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
-    <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки, Підсумковий Розрахунок, Висновок</t>
-  </si>
-  <si>
     <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки</t>
   </si>
   <si>
+    <t>Дізнайтеся про вартість відкриття юридичної особи в Україні. У нашій статті представлено детальний огляд і розрахунки, що дозволяють оцінити початкові витрати на реєстрацію компанії в Україні.</t>
+  </si>
+  <si>
     <t>Створення фірми в Україні, реєстрація юридичної особи, витрати на відкриття компанії, вартість реєстрації бізнесу, витрати на юридичну особу, бюджет для реєстрації фірми, вартість реєстрації бізнесу</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/hr_search_in_ukraine</t>
   </si>
   <si>
-    <t>Пошук Персоналу в Україні, Чому Пошук Персоналу важливий, Етапи Пошуку Персоналу, Висновок</t>
-  </si>
-  <si>
     <t>Ефективний Пошук Персоналу в Україні: Професійні HR-рішення</t>
   </si>
   <si>
+    <t>Шукаєте надійного партнера для пошуку та підбору персоналу в Україні? Наша компанія надає професійні HR-рішення, що сприяють успішному пошуку кваліфікованих співробітників. Довіртеся нам для оптимізації процесу підбору персоналу та нарощування кадрового потенціалу у вашій компанії.</t>
+  </si>
+  <si>
     <t>підбір персоналу, рекрутинг в Україні, HR-послуги, кадрове агентство, працевлаштування в Україні, управління персоналом, пошук фахівців, кадровий консалтинг, HR-консультації, персональні ресурси України</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/tax_reporting_in_ukraine</t>
   </si>
   <si>
-    <t>Податкова звітність в Україні, Основні види податкових звітів для юридичних осіб:</t>
-  </si>
-  <si>
     <t>Податкова Звітність в Україні: Детальний огляд і Правила Підготовки</t>
   </si>
   <si>
+    <t>Дізнайтеся все про податкову звітність в Україні. Наші експерти надають детальний огляд, правила та поради щодо правильної підготовки податкових звітів для вашої компанії.</t>
+  </si>
+  <si>
     <t>податкова звітність, податкові декларації, податкові зобов'язання, податкові ставки, податкові норми, податкове законодавство, бухгалтерія та податки, податкові зміни, податкові обов'язки, податкове адміністрування</t>
   </si>
   <si>
@@ -145,24 +163,24 @@
     <t>http://localhost:3000/ua/bank_account_in_ukraine</t>
   </si>
   <si>
-    <t>Відкриття та Ведення Банківського Рахунку для Юридичних Осіб в Україні</t>
-  </si>
-  <si>
     <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні: Повне керівництво</t>
   </si>
   <si>
+    <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні - важливий етап у фінансовій діяльності вашої компанії. Повне керівництво з відкриття та управління банківським рахунком, щоб забезпечити фінансову стабільність вашого підприємства.</t>
+  </si>
+  <si>
     <t>бізнес-рахунок, корпоративний рахунок, банківські послуги для компаній, банківське обслуговування юридичних осіб, фінансова діяльність організацій, рахунок у банку України, відкриття рахунку для підприємства, банківські послуги для фірм</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/taxation_forms_in_ukraine</t>
   </si>
   <si>
-    <t>Форми оподаткування в Україні: Як обрати оптимальний податковий режим для вашого бізнесу</t>
-  </si>
-  <si>
     <t>Форми оподаткування в Україні: Як обрати правильний податковий режим для вашого бізнесу</t>
   </si>
   <si>
+    <t>Дізнайтеся про різні форми оподаткування в Україні. Податкові зобов'язання, пільги та можливості, які надаються різними податковими режимами. Оберіть найбільш підходящий податковий режим для вашого бізнесу.</t>
+  </si>
+  <si>
     <t>податкові режими, податкова система, податкові зобов'язання, податкова ставка, податкові пільги, сплата податків, податкова оптимізація, податковий режим для бізнесу, податковий облік, податкова політика, податкова звітність, податкові зобов'язання</t>
   </si>
   <si>
@@ -172,36 +190,36 @@
     <t>http://localhost:3000/ua/legal_address_in_ukraine</t>
   </si>
   <si>
-    <t>Юридична Адреса в Україні: важливе рішення для Вашого Бізнесу, 1. Репутація Компанії, 2. Можливості Для Розвитку, 3. податкові зобов'язання, 4. Поштова кореспонденція</t>
-  </si>
-  <si>
     <t>Юридична адреса в Україні: важливий елемент для Вашого бізнесу</t>
   </si>
   <si>
+    <t>Дізнайтеся, як правильно обрати та зареєструвати юридичну адресу для вашого бізнесу в Україні. Розглянемо, як обрати та зареєструвати юридичну адресу, та які важливі аспекти варто врахувати.</t>
+  </si>
+  <si>
     <t>адреса реєстрації в Україні, реєстрація юридичної адреси, податкова адреса, офісний простір, юридична реєстрація, вибір місця розташування, репутація компанії, податкові зобов'язання</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
-    <t>Форми власності в Україні: яка підходить у Вашому випадку?, 1. Індивідуальне Підприємництво або Фізична Особа Підприємець (ФОП), 2. Товариство з обмеженою відповідальністю (ТОВ), 3. Акціонерне Товариство (АТ), 4. Кооперативи</t>
-  </si>
-  <si>
     <t>Форми власності в Україні: все, що вам потрібно знати</t>
   </si>
   <si>
+    <t>Дізнайтеся про різноманітні форми власності в Україні. Давайте розберемося у варіантах власності, правилах і процедурах їхньої реєстрації, а також поговоримо про найбільш підходящу форму власності для вашого бізнесу або інвестицій в Україні.</t>
+  </si>
+  <si>
     <t>власність в Україні, реєстрація власності, правила власності, форми власності в бізнесі, володіння нерухомістю, власність і податки, види власності</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/opening_a_company_in_ukraine</t>
   </si>
   <si>
-    <t>Відкриття Фірми в Україні: Повне Керівництво для Підприємців</t>
-  </si>
-  <si>
     <t>Відкриття Фірми в Україні: Крок за Кроком Керівництво та Поради</t>
   </si>
   <si>
+    <t>Хочете відкрити фірму в Україні? Наш докладний посібник розповість вам, як це зробити. Дізнайтеся про всі етапи реєстрації бізнесу, необхідні документи, податкові аспекти та інші важливі нюанси. Ми надаємо корисні поради та інструкції для успішного старту вашого бізнесу в Україні.</t>
+  </si>
+  <si>
     <t>реєстрація фірми, бізнес в Україні, стартап в Україні, підприємництво в Україні, заснувати компанію, податкове законодавство, правила реєстрації, документи для бізнесу, стартап в Україні</t>
   </si>
   <si>
@@ -211,21 +229,21 @@
     <t>http://localhost:3000/ua/trade_agent_in_ukraine</t>
   </si>
   <si>
-    <t>Торговий Агент в Україні: Ваш Партнер у Світовій торгівлі, Хто такий Торговий Агент?, Переваги Роботи з Торговим Агентом в Україні, Висновки</t>
-  </si>
-  <si>
     <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
   </si>
   <si>
+    <t>Професійний торговий агент в Україні, сприяння в імпортно експортних операціях в Україні. Надаємо консультації, підтримку в митному оформленні та логістиці. Довіртеся нашому досвіду для успішного експорту та імпорту товарів і послуг.</t>
+  </si>
+  <si>
     <t>http://localhost:3000/ua/foreign_trade_consulting</t>
   </si>
   <si>
-    <t xml:space="preserve">Консультації ЗЕД: Ключ до Успішної Міжнародної Торгівлі, Що собою являють Консультації ЗЕД?, Переваги Консультацій ЗЕД , Висновки </t>
-  </si>
-  <si>
     <t>Консультації ЗЕД: Експертне Керівництво із Зовнішньоекономічної Діяльності</t>
   </si>
   <si>
+    <t>Отримайте професійні консультації ЗЕД від експертів у галузі зовнішньоекономічної діяльності. Наші консультанти допоможуть вам розібратися в складних питаннях імпорту та експорту, митного оформлення та багатьох інших аспектах міжнародної торгівлі. Забезпечте успішне ведення вашого бізнесу за кордоном з нашою допомогою.</t>
+  </si>
+  <si>
     <t>консалтинг ЗЕД, ЗЕД послуги, експортно-імпортні консультації, митне консультування, міжнародна торгівля, експортні процедури, імпортні правила, ЗЕД експерт, зовнішньоекономічна діяльність</t>
   </si>
   <si>
@@ -235,12 +253,12 @@
     <t>http://localhost:3000/ua/multimodal_transportation</t>
   </si>
   <si>
-    <t xml:space="preserve">Мультимодальні Перевезення в Україні , Що таке мультимодальні перевезення? , Переваги мультимодальних перевезень , Мультимодальні перевезення в Україні </t>
-  </si>
-  <si>
     <t>Мультимодальні Перевезення в Україні: Оптимізація Логістики для Вашого Бізнесу</t>
   </si>
   <si>
+    <t>Замовте мультимодальні перевезення вантажів та оптимізуйте логістику вашого бізнесу. Професійний сервіс, гнучкість маршрутів і зниження витрат.</t>
+  </si>
+  <si>
     <t>мультимодальна логістика, комбіновані перевезення, перевезення вантажів через різні види транспорту, глобальні мультимодальні рішення, оптимізація вантажоперевезень, мультимодальні перевезення в Європі, мультимодальні перевезення вантажів, мультимодальні перевезення всередині країни, мультимодальна доставка, мультимодальний транспорт</t>
   </si>
   <si>
@@ -250,12 +268,12 @@
     <t>http://localhost:3000/ua/airfreight_costs</t>
   </si>
   <si>
-    <t>Вартість Авіаперевезення</t>
-  </si>
-  <si>
     <t>Вартість Авіаперевезення: Як розрахувати й оптимізувати Ваші витрати</t>
   </si>
   <si>
+    <t>Дізнайтеся, як розрахувати й оптимізувати вартість авіаперевезення. Ефективні стратегії та поради для зниження витрат на вантажні перевезення повітрям. Плануйте свої логістичні операції розумно та заощаджуйте з нашою допомогою.</t>
+  </si>
+  <si>
     <t>вартість вантажоперевезення авіатранспортом, тарифи на авіаперевезення, ціни на авіадоставку, витрати на авіаперевезення, вартість авіатранспортування, бюджет для авіаперевезення, економія на авіадоставці, вартість авіаперевезення вантажів</t>
   </si>
   <si>
@@ -265,12 +283,12 @@
     <t>http://localhost:3000/ua/cargo_delivery_from_Europe</t>
   </si>
   <si>
-    <t>Доставка вантажів з Європи, Розвинена Інфраструктура та Логістика, Безліч постачальників і ринкова варіативність, Дотримання Норм і Правил, Співпраця з професіоналами, Висновки</t>
-  </si>
-  <si>
     <t>Доставка вантажів з Європи: Ефективна Логістика для Вашого Бізнесу</t>
   </si>
   <si>
+    <t>Доставка вантажів з Європи: ваш шлях до світової торгівлі. Забезпечуємо надійну та ефективну логістику для вантажів з Європи. Дізнайтеся, як ми спрощуємо ваш бізнес і робимо міжнародні поставки безтурботними.</t>
+  </si>
+  <si>
     <t>міжнародна доставка з Європи, логістика вантажів з Європи, імпорт з Європи, експорт до Європи, вантажоперевезення в Європу, транспортування товарів з Європи, європейські поставки, перевезення вантажів через Європу</t>
   </si>
   <si>
@@ -280,36 +298,36 @@
     <t>http://localhost:3000/ua/port_forwarding</t>
   </si>
   <si>
-    <t xml:space="preserve">Портове Експедирування в Україні: Ваш Шлях до Ефективної Логістики, Основні послуги портового експедирування </t>
-  </si>
-  <si>
     <t>Портове Експедирування в Україні - Надійна Логістика Ваших Вантажів</t>
   </si>
   <si>
+    <t xml:space="preserve">Портового експедирування вантажів в Одесі, Южному, Чорноморську та інших портах України. Ми забезпечимо повний цикл логістики: від документального супроводу до доставки вантажу "від дверей до дверей". </t>
+  </si>
+  <si>
     <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/customs_brokerage_services_cost</t>
   </si>
   <si>
-    <t>Вартість Послуг Митного Брокера в Україні, Що впливає на вартість послуг Митного Брокера? , Чому співпраця з Митним Брокером - це вигідно? , Переваги Наших Послуг у Києві, Одесі та Львові , Орієнтовна вартість послуг митного брокера</t>
-  </si>
-  <si>
     <t>Вартість Послуг Митного Брокера в Україні: Професійна Допомога та Оптимізація ЗЕД</t>
   </si>
   <si>
+    <t>Скільки коштує послуга митного брокера в Україні. Професійні митні брокери в Києві, Одесі та Львові допоможуть вам швидко й ефективно оформити вантажі, заощадивши час і гроші.</t>
+  </si>
+  <si>
     <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/customs_broker</t>
   </si>
   <si>
-    <t xml:space="preserve">Митний брокер: Ваш надійний партнер у Києві, Одесі та Львові, Хто такий митний брокер?, Послуги митного брокера , Чому обирають нас?, Митний брокер у Києві, Митний брокер в Одесі, Митний брокер у Львові, Переваги роботи з нами </t>
-  </si>
-  <si>
     <t>Митний брокер: Професійні послуги в Києві, Одесі та Львові</t>
   </si>
   <si>
+    <t>Професійні послуги митного брокера в Києві, Одесі та Львові. Швидке та якісне митне оформлення вантажів. Індивідуальний підхід і високий рівень обслуговування.</t>
+  </si>
+  <si>
     <t>митний брокер, послуги митного брокера, митне оформлення, митний брокер Київ, митний брокер Одеса, митний брокер Львів, митні послуги, міжнародна торгівля, імпорт та експорт, митне декларування, митні послуги, митні послуги</t>
   </si>
   <si>
@@ -319,24 +337,24 @@
     <t>http://localhost:3000/ua/fqas</t>
   </si>
   <si>
-    <t>Часті запитання , Що таке Часті запитання (FAQs)?,  , Часті запитання та Відповіді,  , Висновок</t>
-  </si>
-  <si>
     <t>Запитання, що часто ставляться (FAQs)</t>
   </si>
   <si>
+    <t>Наші поширені запитання (FAQs) - ваше джерело відповідей на найважливіші питання про доставку та розмитнення вантажів. Розвійте сумніви і дізнайтеся більше про наші послуги. Ваша ясність - наша турбота.</t>
+  </si>
+  <si>
     <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/help</t>
   </si>
   <si>
-    <t>Допомога та Служба Підтримки, Запитання, що часто ставляться, Як ми можемо допомогти?, Контакти Служби Підтримки, Висновок</t>
-  </si>
-  <si>
     <t>Допомога та Підтримка: Ваш Гід у Світі Доставки та Розмитнення Вантажів</t>
   </si>
   <si>
+    <t>Наші експерти готові допомогти вам на кожному етапі доставки та розмитнення вантажів. Відвідайте сторінку "Допомога" для відповідей на ваші запитання та контактів служби підтримки. Ваш комфорт і задоволеність - наша головна мета.</t>
+  </si>
+  <si>
     <t>служба підтримки, клієнтська підтримка, допомога клієнтам, поширені запитання, контакти служби підтримки, підтримка клієнтів, зворотний зв'язок, допомога в доставці вантажів, консультація клієнтів, технічна підтримка</t>
   </si>
   <si>
@@ -346,75 +364,81 @@
     <t>Cookies</t>
   </si>
   <si>
+    <t>Дізнайтеся, як ми використовуємо cookies для поліпшення вашого досвіду на нашому сайті. Наші файли cookies допомагають нам аналізувати й оптимізувати послуги доставки та розмитнення вантажів. Ми цінуємо вашу прозорість і комфорт в онлайн-взаємодії з нами.</t>
+  </si>
+  <si>
     <t>05.10.23</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/terms_conditions</t>
   </si>
   <si>
-    <t>Умови використання, Правила використання, Відповідальність, Зміни в Умовах, Зв'яжіться з Нами, Висновок</t>
-  </si>
-  <si>
     <t>Умови використання</t>
   </si>
   <si>
+    <t>Наші Умови використання - ваша карта до безпечної та надійної доставки та розмитнення вантажів. Ознайомтеся з нашими правилами перед користуванням нашими послугами. Ваша безпека та задоволеність - наш пріоритет.</t>
+  </si>
+  <si>
     <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/privacy_policy</t>
   </si>
   <si>
-    <t>Політика Конфіденційності, Собор Інформації, Використання Інформації, Захист Інформації, Доступ і Контроль, Зв'язок з Нами, Зміни в Політиці Конфіденційності, Висновок</t>
-  </si>
-  <si>
     <t>Політика конфіденційності</t>
   </si>
   <si>
+    <t>Наша Політика Конфіденційності - ваша гарантія прозорості та безпеки. Ми дбаємо про конфіденційність ваших даних у світі доставки та розмитнення вантажів. Дізнайтеся, як ми забезпечуємо захист ваших особистих відомостей. Ваша конфіденційність - наш пріоритет</t>
+  </si>
+  <si>
     <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/about_us</t>
   </si>
   <si>
-    <t>Транс-Хоуп  , Наші Принципи, Наші Послуги, Контакти</t>
+    <t>Про нас</t>
   </si>
   <si>
     <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
   </si>
   <si>
-    <t>Про нас</t>
+    <t>Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів наступними видами транспорту: Авіаперевезення, Авто доставка вантажів, Морські контейнерні перевезення, Митне оформлення вантажів.</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/customs_clearance</t>
   </si>
   <si>
-    <t>Митне оформлення: Швидко, Надійно, Професійно , Чому обирають Нас, Наші Послуги, Чому Митне Оформлення важливе, Як Ми Працюємо, Наші Переваги</t>
+    <t>Митне Оформлення Київ, Одеса, Львів</t>
   </si>
   <si>
     <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
   </si>
   <si>
+    <t>Послуги митного оформлення для бізнесу в Києві, Одесі та Львові. Швидке і точне оформлення документів, розрахунок платежів, супровід вантажів. Надійність і професіоналізм гарантовані!</t>
+  </si>
+  <si>
     <t>http://localhost:3000/ua/container_delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Морські контейнерні перевезення: Надійність та Економія, Переваги морських контейнерних перевезень </t>
-  </si>
-  <si>
     <t>Морські контейнерні перевезення: Надійність та Економія</t>
   </si>
   <si>
+    <t>Морські контейнерні перевезення. Повний спектр послуг: від консультацій і бронювання, до доставки "від дверей до дверей".</t>
+  </si>
+  <si>
     <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/truck_delivery</t>
   </si>
   <si>
-    <t>Авто перевезення</t>
-  </si>
-  <si>
     <t>Авто Перевезення: Надійність та Ефективність у Транспортуванні Вашого вантажу</t>
   </si>
   <si>
+    <t>Авто перевезення: надійна доставка вантажів по Україні та країнам Європи. Ми пропонуємо швидку та ефективну логістику для вашого бізнесу. Довірте нам перевезення ваших вантажів і переконайтеся в надійності наших послуг. Отримайте безперебійне рішення для транспортування вашого вантажу з нами.</t>
+  </si>
+  <si>
     <t>Автомобільні вантажоперевезення, Вантажні перевезення дорогою, Логістика автоперевезень, Вантажівки для перевезення вантажів, Автотранспортні послуги, Доставка вантажів автомобілем, Автодоставка вантажів, Транспортування товарів автотранспортом, Доставка вантажів країною, Дорожні перевезення, Автомобільні логістичні послуги, Перевезення товарів дорогою, Вантажоперевезення автомобілем, Автофургони для перевезення вантажів, Професійні авто перевезення, Професійні авто перевезення, Автофургони для перевезення вантажів</t>
   </si>
   <si>
@@ -424,12 +448,12 @@
     <t>http://localhost:3000/ua/air_delivery</t>
   </si>
   <si>
-    <t>Авіа перевезення</t>
-  </si>
-  <si>
     <t>Авіаперевезення: швидко, надійно та ефективно</t>
   </si>
   <si>
+    <t>Авіа перевезення: швидка доставка, глобальне покриття і надійність. Доставляємо вантажі по всьому світу в найкоротші терміни. Дізнайтеся, як авіаперевезення можуть поліпшити ваш бізнес уже сьогодні.</t>
+  </si>
+  <si>
     <t>Авіаперевезення, Вантажні авіаперевезення, Міжнародні авіаперевезення, Перевезення вантажів повітрям, Логістика авіаперевезень, Експрес-доставка авіа, Авіафрахт, Авіаперевезення вантажів, Авіалогістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів з Китаю, Авіаперевезення до Європи, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів, Вантажна авіадоставка</t>
   </si>
   <si>
@@ -439,48 +463,48 @@
     <t>http://localhost:3000/ua/sea_container_freight_rate</t>
   </si>
   <si>
-    <t>Вартість Перевезення Контейнера Морем, Фактори, що впливають на вартість морського перевезення контейнерів</t>
-  </si>
-  <si>
     <t>Вартість Перевезення Контейнера Морем: надійні та конкурентоспроможні Тарифи</t>
   </si>
   <si>
+    <t xml:space="preserve">Дізнайтеся про вартість перевезення контейнера морем. Наші конкурентоспроможні тарифи забезпечують надійну та ефективну доставку вашого вантажу в будь-яку точку світу. Ми пропонуємо прозорі ціни та високу якість обслуговування для вантажоперевезень морським шляхом. </t>
+  </si>
+  <si>
     <t>ціна морського перевезення контейнерів, тарифи на морське перевезення, вартість вантажоперевезень морем, розцінки на перевезення морським контейнером, тарифи на контейнерні перевезення</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/container_freight_rate</t>
   </si>
   <si>
-    <t>Фрахт Контейнера: ключові аспекти і вартість вантажоперевезень</t>
-  </si>
-  <si>
     <t>Фрахт контейнера: Точні ціни та гнучкі умови для вантажоперевезень</t>
   </si>
   <si>
+    <t>Дізнайтеся актуальні ціни на фрахт морських контейнерів і переваги наших вантажоперевезень. Ми надаємо надійні та конкурентоспроможні ціни на фрахт контейнерів, даючи вам змогу оптимізувати бюджет і забезпечувати безпечну доставку вантажів по всьому світу.</t>
+  </si>
+  <si>
     <t>вартість фрахту морських контейнерів, розцінки на контейнерний фрахт, тарифи на вантажоперевезення контейнерами, ціни на морські перевезення, фрахтові тарифи</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/intermodal_transportation</t>
   </si>
   <si>
-    <t>Інтермодальні Перевезення</t>
-  </si>
-  <si>
     <t>Інтермодальні Перевезення: Ефективність і Надійність у Глобальній Логістиці</t>
   </si>
   <si>
+    <t>Інтермодальні перевезення: оптимальне поєднання різних видів транспорту для ефективної доставки вантажів. Наші інтермодальні рішення забезпечують надійність і гнучкість у світовій логістиці. Дізнайтеся, як ви можете заощадити на перевезеннях, обираючи нашу систему доставки.</t>
+  </si>
+  <si>
     <t>інтермодальні вантажоперевезення, мультимодальні перевезення, комбіновані перевезення, перевезення вантажів різними видами транспорту</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/customs_broker_services_price</t>
   </si>
   <si>
-    <t>Послуги митного брокера ціна</t>
-  </si>
-  <si>
     <t>Ціни на Послуги Митного Брокера: Прозорість та Ефективність</t>
   </si>
   <si>
+    <t>Дізнайтеся, які ціни на послуги митного брокера в Києві. Прозорі та конкурентоспроможні тарифи для ефективної митної підтримки вашого бізнесу. Ми робимо митні процедури доступними та вигідними.</t>
+  </si>
+  <si>
     <t>ціна на митні послуги, вартість брокерських послуг, тарифи на митне оформлення, розцінки митного брокера, цінова політика митних послуг, плата за брокерські послуги, митне оформлення ціна, вартість послуг митного брокера</t>
   </si>
   <si>
@@ -490,12 +514,12 @@
     <t>http://localhost:3000/ua/customs_broker_kyiv</t>
   </si>
   <si>
-    <t>Митний Брокер Київ</t>
-  </si>
-  <si>
     <t>Митний брокер Київ: Ефективна Митна Підтримка для Вашого Бізнесу</t>
   </si>
   <si>
+    <t>Ваш надійний митний брокер у Києві для міжнародних вантажних операцій. Оптимізуйте митні процедури та забезпечте дотримання норм і правил з професійною допомогою. Ми робимо вашу міжнародну торгівлю простішою та ефективнішою</t>
+  </si>
+  <si>
     <t>експорт та імпорт вантажів, митне консультування, брокерські послуги для міжнародної торгівлі, митні процедури, митні консультації, митний консультант, митні послуги Київ, митні збори, митне оформлення товарів, митні консультанти, митні послуги Київ</t>
   </si>
   <si>
@@ -508,25 +532,37 @@
     <t>http://localhost:3000/ua/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
+    <t>Розділи договору купівлі-продажу</t>
+  </si>
+  <si>
     <t>Розділи договору купівлі-продажу ЗЕД</t>
   </si>
   <si>
+    <t>Ключові розділи договору купівлі-продажу та їх значення для успішного укладення угод ЗЕД.</t>
+  </si>
+  <si>
     <t>договір купівлі-продажу, розділи, умови поставки, ціна товару, платежі, ризики, виконання контракту, захист інтересів</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
+    <t>Порядок заповнення митної декларації</t>
+  </si>
+  <si>
     <t>Порядок заповнення митної декларації - Україна</t>
   </si>
   <si>
+    <t xml:space="preserve">Дізнайтеся про порядок заповнення митної декларації для успішного проходження митного контролю. </t>
+  </si>
+  <si>
     <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/customs_control</t>
   </si>
   <si>
-    <t>Митний контроль</t>
+    <t xml:space="preserve">Митний контроль </t>
   </si>
   <si>
     <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
@@ -541,12 +577,12 @@
     <t>http://localhost:3000/ua/info/customs_broker_license</t>
   </si>
   <si>
-    <t>Отримання ліцензії на здійснення митно-брокерської діяльності в Україні регулюється наступними наказами:</t>
-  </si>
-  <si>
     <t>Ліцензія митного брокера</t>
   </si>
   <si>
+    <t>Отримання ліцензії митного брокера в Україні: Процедури та Вимоги. Строки дії ліцензії на здійснення митної діяльності.</t>
+  </si>
+  <si>
     <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
   </si>
   <si>
@@ -556,6 +592,9 @@
     <t>Митні режими в Україні</t>
   </si>
   <si>
+    <t xml:space="preserve">Дізнайтеся про ключові митні режими в Україні з нашим вичерпним оглядом. Вивчіть особливості митних процедур, включно з режимами митного оформлення, тимчасового ввезення, експорту та імпорту товарів. </t>
+  </si>
+  <si>
     <t>митні режими, Україна, митне оформлення, тимчасове ввезення, експорт, імпорт, митне законодавство, митні процедури, митні правила</t>
   </si>
   <si>
@@ -565,24 +604,27 @@
     <t>http://localhost:3000/ua/info/customs_accreditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Акредитація на митниці онлайн </t>
+    <t>Акредитація на митниці онлайн</t>
   </si>
   <si>
     <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
   </si>
   <si>
+    <t xml:space="preserve">Отримайте акредитацію швидко та легко, мінімізуючи паперову тяганину. Почніть онлайн-акредитацію на митниці просто зараз! </t>
+  </si>
+  <si>
     <t>акредитація митниця, онлайн акредитація, процедура акредитації, митні процедури, документи для митниці, митні послуги, документи для митниці</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
-    <t>Сертифікат походження EUR.1</t>
-  </si>
-  <si>
     <t>Сертифікат походження EUR.1 (Евро 1 Euro 1)</t>
   </si>
   <si>
+    <t>Детальна інформація про форму сертифіката EUR.1 та процедуру його отримання. Оптимізуйте ваш міжнародний бізнес із Сертифікатом походження EUR.1</t>
+  </si>
+  <si>
     <t>сертифікат походження, EUR.1, міжнародні торговельні угоди, преференційне походження, мито, торговельні пільги, експортні документи, митні процедури, торгівля міжнародними партнерами, митне оформлення, митні процедури, сертифікат походження, EUR.1</t>
   </si>
   <si>
@@ -592,24 +634,30 @@
     <t>http://localhost:3000/ua/info/certificate_of_origin_base</t>
   </si>
   <si>
-    <t>Країна походження товару та Сертифікат походження</t>
+    <t>Сертифікат походження основи</t>
   </si>
   <si>
     <t>Сертифікат походження, основи щодо визначення країни походження</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертифікат Походження продукції - основи. Ваш ефективний інструмент підтвердження якості та походження товарів на міжнародному ринку. </t>
+  </si>
+  <si>
     <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
-    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок</t>
+    <t>Зовнішньоекономічний Договір купівлі-продажу</t>
   </si>
   <si>
     <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
   </si>
   <si>
+    <t>Зовнішньоекономічний договір - ключ до успішної міжнародної торгівлі. Завантажити зразок. Ваш бізнес готовий до нових горизонтів - почніть із підписання зовнішньоекономічних договорів сьогодні.</t>
+  </si>
+  <si>
     <t>міжнародні договори, торговельні контракти, експортно-імпортні угоди, світова торгівля, міжнародна комерція</t>
   </si>
   <si>
@@ -619,36 +667,45 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_cost</t>
   </si>
   <si>
-    <t>Пакет документів для підтвердження митної вартості при імпорті товарів.</t>
+    <t>Документи для підтвердження Митної вартості товарів</t>
   </si>
   <si>
     <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
   </si>
   <si>
+    <t xml:space="preserve">Дізнайтеся ключові документи, необхідні для підтвердження митної вартості та забезпечення гладкого процесу міжнародної торгівлі. </t>
+  </si>
+  <si>
     <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/customs_clearance_package_export</t>
   </si>
   <si>
-    <t>Документи для експорту товарів</t>
+    <t>Пакет документів для експорту</t>
   </si>
   <si>
     <t>Пакет документів для експорту товарів</t>
   </si>
   <si>
+    <t>Пориньте у світ міжнародної торгівлі з нашим повним пакетом документів для експорту товарів. Унікальна стаття надає детальний перелік ключових документів, необхідних для успішного експорту товарів.</t>
+  </si>
+  <si>
     <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/info/customs_clearance_package_import</t>
   </si>
   <si>
-    <t>Пакет документів при імпорті товарів</t>
+    <t>Пакет документів для імпорту</t>
   </si>
   <si>
     <t>Пакет документів для імпорту товарів</t>
   </si>
   <si>
+    <t xml:space="preserve">Пакет документів для імпорту. Ознайомтеся з ключовим переліком документів, необхідних для успішного імпорту товарів. </t>
+  </si>
+  <si>
     <t>імпортна документація, документи для ввезення товарів, митна документація, імпортні процедури, імпортні форми, міжнародна торговельна документація, імпортні ліцензії, транспортні документи для імпорту, документи для міжнародних перевезень, зовнішньоторговельна документація</t>
   </si>
   <si>
@@ -661,6 +718,9 @@
     <t>Митне оформлення: Ключова інформація та Експертні Поради</t>
   </si>
   <si>
+    <t>Дізнайтеся всі тонкощі митного оформлення на одній сторінці! Наша інформація допоможе вам зрозуміти як грамотно і швидко пройти через процес митних формальностей. Експертні поради та крок за кроком керівництво чекають на вас тут.</t>
+  </si>
+  <si>
     <t>Митниця корисне</t>
   </si>
   <si>
@@ -676,18 +736,21 @@
     <t>Як розрахувати вартість розмитнення і дізнатися суму митних платежів на митницю.</t>
   </si>
   <si>
+    <t>Дізнайтеся, як розрахувати вартість розмитнення та визначити суму митних платежів. Детальні кроки з розрахунку митних зборів, ПДВ та інших митних зборів.</t>
+  </si>
+  <si>
     <t>розрахунок вартості розмитнення, сума митних платежів, митні збори, ПДВ на митниці, митні збори, оформлення вантажу на митниці, імпортні мита, митні платежі, як розрахувати розмитнення, розрахунок митних зборів</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
-    <t xml:space="preserve">Лоукостери авіадоставки вантажів в Україну., Зниження витрат , Підвищення доходів </t>
-  </si>
-  <si>
     <t>Економіка лоукостерів із доставки вантажів: як авіакомпанії знижують витрати і підвищують доходи.</t>
   </si>
   <si>
+    <t>Економіка лоукостерів з доставки вантажів: дізнайтеся, як авіакомпанії знижують витрати і підвищують доходи за рахунок оптимізації маршрутів.</t>
+  </si>
+  <si>
     <t>економіка лоукостерів, доставка вантажів, зниження витрат, підвищення доходів, оптимізація маршрутів, сучасні технології в авіації, мінімізація операційних витрат, конкурентоспроможність авіакомпаній, стратегії лоукостерів, вантажні авіаперевезення</t>
   </si>
   <si>
@@ -700,6 +763,9 @@
     <t>Як підібрати митний код товару</t>
   </si>
   <si>
+    <t>Дізнайтеся, як правильно підібрати митний код товару для успішного оформлення вантажу. Наше керівництво допоможе вам розібратися в класифікації товарів і вибрати відповідний код для митної декларації.</t>
+  </si>
+  <si>
     <t>митний код товару, код ТН ЗЕД, класифікація товарів, товарна номенклатура, код експортного товару, імпортний код, гармонізована система, HS код, митне очищення, кодування товарів, митні тарифи, класифікатор товарів, товарна група, декларування товару, митна декларація</t>
   </si>
   <si>
@@ -712,6 +778,9 @@
     <t>Способи доставки контейнерів з Китаю в Україну</t>
   </si>
   <si>
+    <t>Дізнайтеся про різні способи транспортування контейнерів з Китаю в Україну: морські, залізничні та мультимодальні перевезення. Ефективні логістичні рішення для вашого бізнесу.</t>
+  </si>
+  <si>
     <t>способи доставки контейнерів, види транспортування контейнерів, логістика контейнерних перевезень, методи перевезення контейнерів, транспортування вантажів у контейнерах, контейнерні перевезення, варіанти транспортування контейнерів, ефективні способи доставки контейнерів</t>
   </si>
   <si>
@@ -724,6 +793,9 @@
     <t>Як обрати КАРГО перевізника і отримати багато проблем.</t>
   </si>
   <si>
+    <t>Що обрати, Карго доставку чи розмитнити в білу? Давайте обговоримо переваги та недоліки кожного способу.</t>
+  </si>
+  <si>
     <t>карго доставка, карго перевізник, розмитнення товарів, доставка з Китаю, біле розмитнення, збірні вантажі з Китаю</t>
   </si>
   <si>
@@ -733,9 +805,15 @@
     <t>http://localhost:3000/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
+    <t>Як написати запит китайському постачальнику товарів? Докладний гайд із прикладами.</t>
+  </si>
+  <si>
     <t>Як написати запит китайському постачальнику товарів?</t>
   </si>
   <si>
+    <t>Докладний гайд із прикладами. Як написати запит китайському постачальнику товарів. Зразок листа китайському постачальнику.</t>
+  </si>
+  <si>
     <t>запит постачальнику, лист продавцю, китайські постачальники, закупівля в Китаї</t>
   </si>
   <si>
@@ -745,6 +823,9 @@
     <t>http://localhost:3000/ua/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
+    <t>Пошук постачальників у Китаї, покрокова інструкція, як знайти постачальника в Китаї. На прикладі сайту alibaba.com.</t>
+  </si>
+  <si>
     <t>Пошук постачальників у Китаї</t>
   </si>
   <si>
@@ -763,6 +844,9 @@
     <t>Митні платежі України в серпні 2024 року досягли 51,1 млрд грн</t>
   </si>
   <si>
+    <t>У серпні 2024 року в дохід держави направлено 51,1 млрд грн митних платежів, що на 3,2 млрд грн більше, ніж у попередньому місяці. Дізнайтеся, які фактори вплинули на зростання надходжень.</t>
+  </si>
+  <si>
     <t>митні платежі, Україна, серпень 2024, державний бюджет, пільги, оподатковуваний імпорт</t>
   </si>
   <si>
@@ -772,6 +856,9 @@
     <t>Обмеження руху на кордоні з Угорщиною на два тижні</t>
   </si>
   <si>
+    <t>З 19 вересня на пункті пропуску Чоп-Загонь тимчасово обмежать рух транспорту через ремонтні роботи. Дізнайтеся подробиці.</t>
+  </si>
+  <si>
     <t>кордон, Угорщина, обмеження, Чоп-Загонь, ремонт</t>
   </si>
   <si>
@@ -781,6 +868,9 @@
     <t>Аварія сухогруза Pallada біля берегів Туреччини: всі деталі інциденту</t>
   </si>
   <si>
+    <t>Дізнайтеся про аварію сухогруза Pallada, її наслідки для порту та місцевих жителів.</t>
+  </si>
+  <si>
     <t>сухогруз Pallada, аварія, Туреччина, рятувальна операція, шторм, наслідки</t>
   </si>
   <si>
@@ -790,6 +880,9 @@
     <t>Корупційний скандал: чому MSC відмовилася від заходу в Одесу</t>
   </si>
   <si>
+    <t>Компанія MSC скасувала захід у порт Одеси через корупційні перевірки. Як це рішення впливає на Україну та її економіку?</t>
+  </si>
+  <si>
     <t>MSC, корупція, порт Одеси, затримка вантажів, міжнародна логістика</t>
   </si>
   <si>
@@ -797,6 +890,9 @@
   </si>
   <si>
     <t>Експорт портів Великої Одеси перевищив 60 мільйонів тонн за 2024 рік</t>
+  </si>
+  <si>
+    <t>Порти Великої Одеси за 11 місяців 2024 року експортували понад 60 мільйонів тонн вантажів, незважаючи на атаки та складні умови, приділяючи особливу увагу поставкам агропродукції.</t>
   </si>
   <si>
     <t>Одеса, порти, експорт, агропродукція, зерно, Україна, продовольство</t>
@@ -1176,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,24 +1294,27 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1223,1245 +1322,1431 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="F29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="G45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="G52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>216</v>
+        <v>235</v>
+      </c>
+      <c r="G56" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="G61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F63" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="G63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>270</v>
+      </c>
+      <c r="G65" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="G68" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G69" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="G70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="G71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>293</v>
+      </c>
+      <c r="G72" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesUA.xlsx
+++ b/allPages/allPagesUA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="313">
   <si>
     <t>Date</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Status</t>
   </si>
   <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>SEO Title</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -397,24 +397,24 @@
     <t>http://localhost:3000/ua/about_us</t>
   </si>
   <si>
+    <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
+  </si>
+  <si>
     <t>Про нас</t>
   </si>
   <si>
-    <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
-  </si>
-  <si>
     <t>Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів наступними видами транспорту: Авіаперевезення, Авто доставка вантажів, Морські контейнерні перевезення, Митне оформлення вантажів.</t>
   </si>
   <si>
     <t>http://localhost:3000/ua/customs_clearance</t>
   </si>
   <si>
+    <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
+  </si>
+  <si>
     <t>Митне Оформлення Київ, Одеса, Львів</t>
   </si>
   <si>
-    <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
-  </si>
-  <si>
     <t>Послуги митного оформлення для бізнесу в Києві, Одесі та Львові. Швидке і точне оформлення документів, розрахунок платежів, супровід вантажів. Надійність і професіоналізм гарантовані!</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>http://localhost:3000/ua/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
+    <t>Розділи договору купівлі-продажу ЗЕД</t>
+  </si>
+  <si>
     <t>Розділи договору купівлі-продажу</t>
   </si>
   <si>
-    <t>Розділи договору купівлі-продажу ЗЕД</t>
-  </si>
-  <si>
     <t>Ключові розділи договору купівлі-продажу та їх значення для успішного укладення угод ЗЕД.</t>
   </si>
   <si>
@@ -547,12 +547,12 @@
     <t>http://localhost:3000/ua/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
+    <t>Порядок заповнення митної декларації - Україна</t>
+  </si>
+  <si>
     <t>Порядок заповнення митної декларації</t>
   </si>
   <si>
-    <t>Порядок заповнення митної декларації - Україна</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дізнайтеся про порядок заповнення митної декларації для успішного проходження митного контролю. </t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>http://localhost:3000/ua/info/customs_control</t>
   </si>
   <si>
+    <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
+  </si>
+  <si>
     <t xml:space="preserve">Митний контроль </t>
   </si>
   <si>
-    <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
-  </si>
-  <si>
     <t>митні формальності, митна перевірка, імпортний контроль, експортний контроль, митні процедури, митні правила, митне законодавство, митний режим, митне законодавство, регулювання митної діяльності</t>
   </si>
   <si>
@@ -604,12 +604,12 @@
     <t>http://localhost:3000/ua/info/customs_accreditation</t>
   </si>
   <si>
+    <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
+  </si>
+  <si>
     <t>Акредитація на митниці онлайн</t>
   </si>
   <si>
-    <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
-  </si>
-  <si>
     <t xml:space="preserve">Отримайте акредитацію швидко та легко, мінімізуючи паперову тяганину. Почніть онлайн-акредитацію на митниці просто зараз! </t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>http://localhost:3000/ua/info/certificate_of_origin_base</t>
   </si>
   <si>
+    <t>Сертифікат походження, основи щодо визначення країни походження</t>
+  </si>
+  <si>
     <t>Сертифікат походження основи</t>
   </si>
   <si>
-    <t>Сертифікат походження, основи щодо визначення країни походження</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сертифікат Походження продукції - основи. Ваш ефективний інструмент підтвердження якості та походження товарів на міжнародному ринку. </t>
   </si>
   <si>
@@ -649,12 +649,12 @@
     <t>http://localhost:3000/ua/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
+    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
+  </si>
+  <si>
     <t>Зовнішньоекономічний Договір купівлі-продажу</t>
   </si>
   <si>
-    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
-  </si>
-  <si>
     <t>Зовнішньоекономічний договір - ключ до успішної міжнародної торгівлі. Завантажити зразок. Ваш бізнес готовий до нових горизонтів - почніть із підписання зовнішньоекономічних договорів сьогодні.</t>
   </si>
   <si>
@@ -667,12 +667,12 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_cost</t>
   </si>
   <si>
+    <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
+  </si>
+  <si>
     <t>Документи для підтвердження Митної вартості товарів</t>
   </si>
   <si>
-    <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дізнайтеся ключові документи, необхідні для підтвердження митної вартості та забезпечення гладкого процесу міжнародної торгівлі. </t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_export</t>
   </si>
   <si>
+    <t>Пакет документів для експорту товарів</t>
+  </si>
+  <si>
     <t>Пакет документів для експорту</t>
   </si>
   <si>
-    <t>Пакет документів для експорту товарів</t>
-  </si>
-  <si>
     <t>Пориньте у світ міжнародної торгівлі з нашим повним пакетом документів для експорту товарів. Унікальна стаття надає детальний перелік ключових документів, необхідних для успішного експорту товарів.</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>http://localhost:3000/ua/info/customs_clearance_package_import</t>
   </si>
   <si>
+    <t>Пакет документів для імпорту товарів</t>
+  </si>
+  <si>
     <t>Пакет документів для імпорту</t>
   </si>
   <si>
-    <t>Пакет документів для імпорту товарів</t>
-  </si>
-  <si>
     <t xml:space="preserve">Пакет документів для імпорту. Ознайомтеся з ключовим переліком документів, необхідних для успішного імпорту товарів. </t>
   </si>
   <si>
@@ -727,6 +727,21 @@
     <t>Blogs</t>
   </si>
   <si>
+    <t>03.11.24</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/ua/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
+  </si>
+  <si>
+    <t>10 поширених культурних помилок, яких припускаються іноземні бізнесмени в Китаї</t>
+  </si>
+  <si>
+    <t>10 поширених культурних помилок, яких припускаються іноземні бізнесмени в Китаї.</t>
+  </si>
+  <si>
+    <t>культурні помилки в Китаї, помилки іноземних бізнесменів у Китаї, китайський діловий етикет, як вести бізнес у Китаї, китайська культура в бізнесі, помилки в китайському бізнесі, ділові зв'язки в Китаї, гість і етикет у Китаї, культура "гуаньсі", правила спілкування з китайськими партнерами</t>
+  </si>
+  <si>
     <t>26.06.24</t>
   </si>
   <si>
@@ -805,12 +820,12 @@
     <t>http://localhost:3000/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
+    <t>Як написати запит китайському постачальнику товарів?</t>
+  </si>
+  <si>
     <t>Як написати запит китайському постачальнику товарів? Докладний гайд із прикладами.</t>
   </si>
   <si>
-    <t>Як написати запит китайському постачальнику товарів?</t>
-  </si>
-  <si>
     <t>Докладний гайд із прикладами. Як написати запит китайському постачальнику товарів. Зразок листа китайському постачальнику.</t>
   </si>
   <si>
@@ -823,16 +838,55 @@
     <t>http://localhost:3000/ua/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
+    <t>Пошук постачальників у Китаї</t>
+  </si>
+  <si>
     <t>Пошук постачальників у Китаї, покрокова інструкція, як знайти постачальника в Китаї. На прикладі сайту alibaba.com.</t>
   </si>
   <si>
-    <t>Пошук постачальників у Китаї</t>
-  </si>
-  <si>
     <t>пошук постачальників, alibaba.com, постачання товарів з Китаю, товари</t>
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>12.10.24</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/ua/news/ukrainian_clothing_producers_vs_second_hand</t>
+  </si>
+  <si>
+    <t>Українські виробники одягу вимагають обмежити секонд-хенд для підтримки місцевої індустрії</t>
+  </si>
+  <si>
+    <t>Українські виробники модної індустрії виступають проти масового ввезення секонд-хенду, що гальмує розвиток місцевого виробництва та призводить до контрабанди нового товару. Докладніше у статті.</t>
+  </si>
+  <si>
+    <t>український одяг, секонд-хенд, обмеження секонд-хенду, місцеве виробництво, контрабанда, текстиль, одяг</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/ua/news/customs_violations_17_billion_uah_2024</t>
+  </si>
+  <si>
+    <t>Митні порушення на суму 17 млрд грн: підсумки перших 9 місяців 2024 року</t>
+  </si>
+  <si>
+    <t>За 9 місяців 2024 року українські митниці виявили 7 259 порушень на суму 17 млрд грн. Значні штрафи та конфіскації – детальніше в статті.</t>
+  </si>
+  <si>
+    <t>митниця, порушення, штрафи, конфіскація, 2024, Україна, товари, правопорушення, стягнення, суд</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/ua/news/ukraine_customs_progress_european_standards</t>
+  </si>
+  <si>
+    <t>Україна здійснює значний прогрес на шляху до європейських митних стандартів</t>
+  </si>
+  <si>
+    <t>Україна впевнено рухається до європейських митних стандартів, впроваджуючи ключові реформи та покращуючи співпрацю з ЄС, незважаючи на виклики війни.</t>
+  </si>
+  <si>
+    <t>Україна, митні стандарти, євроінтеграція, ЄС, митні реформи, NCTS, АЕО</t>
   </si>
   <si>
     <t>28.09.24</t>
@@ -1272,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G76"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1944,7 +1998,7 @@
         <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,7 +2281,7 @@
         <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
         <v>185</v>
@@ -2493,30 +2547,30 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>248</v>
@@ -2597,156 +2651,248 @@
         <v>264</v>
       </c>
       <c r="E64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" t="s">
         <v>265</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>266</v>
-      </c>
-      <c r="G64" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
         <v>268</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
         <v>269</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>270</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>271</v>
-      </c>
-      <c r="F65" t="s">
-        <v>270</v>
       </c>
       <c r="G65" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>274</v>
-      </c>
-      <c r="B68" t="s">
-        <v>275</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" t="s">
-        <v>276</v>
-      </c>
-      <c r="F68" t="s">
-        <v>277</v>
-      </c>
-      <c r="G68" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>292</v>
       </c>
-      <c r="E72" t="s">
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" t="s">
+        <v>299</v>
+      </c>
+      <c r="G73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>292</v>
       </c>
-      <c r="F72" t="s">
-        <v>293</v>
-      </c>
-      <c r="G72" t="s">
-        <v>294</v>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" t="s">
+        <v>307</v>
+      </c>
+      <c r="G75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" t="s">
+        <v>310</v>
+      </c>
+      <c r="F76" t="s">
+        <v>311</v>
+      </c>
+      <c r="G76" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesUA.xlsx
+++ b/allPages/allPagesUA.xlsx
@@ -40,7 +40,7 @@
     <t>15.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/business_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/business_in_ukraine</t>
   </si>
   <si>
     <t>x</t>
@@ -58,7 +58,7 @@
     <t>14.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/usefull</t>
+    <t>https://t-h-logistics.com/ua/usefull</t>
   </si>
   <si>
     <t>Корисні матеріали з митного оформлення та доставки вантажів: поради та інструкції</t>
@@ -70,7 +70,7 @@
     <t>митне оформлення вантажів, інструкції з доставки вантажів, логістика та митне оформлення, успішна доставка вантажів, як доставити вантаж через митницю, логістика та митне оформлення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs</t>
+    <t>https://t-h-logistics.com/ua/customs</t>
   </si>
   <si>
     <t>Митний брокер і митне оформлення в Києві, Одесі, Львові</t>
@@ -82,7 +82,7 @@
     <t>митне оформлення Київ, послуги митного оформлення Львів, митний брокер Одеса, розрахунок митних платежів, супровід вантажів, митні документи, митні послуги, митні документи</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/sea</t>
+    <t>https://t-h-logistics.com/ua/sea</t>
   </si>
   <si>
     <t>Морські контейнерні перевезення і доставка вантажів зі США та Китаю в Україну</t>
@@ -94,7 +94,7 @@
     <t>доставка вантажів зі США в Україну, морські контейнерні перевезення, доставка з Китаю в Україну, контейнерні перевезення Україна, морська доставка з Китаю, міжнародні морські перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/air</t>
+    <t>https://t-h-logistics.com/ua/air</t>
   </si>
   <si>
     <t>Авіа доставка та авіаперевезення вантажів в Україну: швидко і надійно</t>
@@ -106,7 +106,7 @@
     <t>авіаперевезення вантажів Україна, авіа доставка в Україну, міжнародна авіадоставка, транспортування вантажів літаком, авіа логістика Україна, Експрес-доставка авіа, Авіафрахт, Авіафрахт, Авіаперевезення вантажів, Авіа логістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/truck</t>
+    <t>https://t-h-logistics.com/ua/truck</t>
   </si>
   <si>
     <t>Автоперевезення і доставка вантажів з Європи: швидкі та безпечні рішення</t>
@@ -121,7 +121,7 @@
     <t>25.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
     <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки</t>
@@ -133,7 +133,7 @@
     <t>Створення фірми в Україні, реєстрація юридичної особи, витрати на відкриття компанії, вартість реєстрації бізнесу, витрати на юридичну особу, бюджет для реєстрації фірми, вартість реєстрації бізнесу</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/hr_search_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/hr_search_in_ukraine</t>
   </si>
   <si>
     <t>Ефективний Пошук Персоналу в Україні: Професійні HR-рішення</t>
@@ -145,7 +145,7 @@
     <t>підбір персоналу, рекрутинг в Україні, HR-послуги, кадрове агентство, працевлаштування в Україні, управління персоналом, пошук фахівців, кадровий консалтинг, HR-консультації, персональні ресурси України</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/tax_reporting_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/tax_reporting_in_ukraine</t>
   </si>
   <si>
     <t>Податкова Звітність в Україні: Детальний огляд і Правила Підготовки</t>
@@ -160,7 +160,7 @@
     <t>24.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/bank_account_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/bank_account_in_ukraine</t>
   </si>
   <si>
     <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні: Повне керівництво</t>
@@ -172,7 +172,7 @@
     <t>бізнес-рахунок, корпоративний рахунок, банківські послуги для компаній, банківське обслуговування юридичних осіб, фінансова діяльність організацій, рахунок у банку України, відкриття рахунку для підприємства, банківські послуги для фірм</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/taxation_forms_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/taxation_forms_in_ukraine</t>
   </si>
   <si>
     <t>Форми оподаткування в Україні: Як обрати правильний податковий режим для вашого бізнесу</t>
@@ -187,7 +187,7 @@
     <t>23.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/legal_address_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/legal_address_in_ukraine</t>
   </si>
   <si>
     <t>Юридична адреса в Україні: важливий елемент для Вашого бізнесу</t>
@@ -199,7 +199,7 @@
     <t>адреса реєстрації в Україні, реєстрація юридичної адреси, податкова адреса, офісний простір, юридична реєстрація, вибір місця розташування, репутація компанії, податкові зобов'язання</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/main_forms_of_ownership_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
     <t>Форми власності в Україні: все, що вам потрібно знати</t>
@@ -211,7 +211,7 @@
     <t>власність в Україні, реєстрація власності, правила власності, форми власності в бізнесі, володіння нерухомістю, власність і податки, види власності</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/opening_a_company_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/opening_a_company_in_ukraine</t>
   </si>
   <si>
     <t>Відкриття Фірми в Україні: Крок за Кроком Керівництво та Поради</t>
@@ -226,7 +226,7 @@
     <t>22.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/trade_agent_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/trade_agent_in_ukraine</t>
   </si>
   <si>
     <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
@@ -235,7 +235,7 @@
     <t>Професійний торговий агент в Україні, сприяння в імпортно експортних операціях в Україні. Надаємо консультації, підтримку в митному оформленні та логістиці. Довіртеся нашому досвіду для успішного експорту та імпорту товарів і послуг.</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/foreign_trade_consulting</t>
+    <t>https://t-h-logistics.com/ua/foreign_trade_consulting</t>
   </si>
   <si>
     <t>Консультації ЗЕД: Експертне Керівництво із Зовнішньоекономічної Діяльності</t>
@@ -250,7 +250,7 @@
     <t>21.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/multimodal_transportation</t>
+    <t>https://t-h-logistics.com/ua/multimodal_transportation</t>
   </si>
   <si>
     <t>Мультимодальні Перевезення в Україні: Оптимізація Логістики для Вашого Бізнесу</t>
@@ -265,7 +265,7 @@
     <t>19.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/airfreight_costs</t>
+    <t>https://t-h-logistics.com/ua/airfreight_costs</t>
   </si>
   <si>
     <t>Вартість Авіаперевезення: Як розрахувати й оптимізувати Ваші витрати</t>
@@ -280,7 +280,7 @@
     <t>15.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cargo_delivery_from_Europe</t>
+    <t>https://t-h-logistics.com/ua/cargo_delivery_from_Europe</t>
   </si>
   <si>
     <t>Доставка вантажів з Європи: Ефективна Логістика для Вашого Бізнесу</t>
@@ -295,7 +295,7 @@
     <t>13.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/port_forwarding</t>
+    <t>https://t-h-logistics.com/ua/port_forwarding</t>
   </si>
   <si>
     <t>Портове Експедирування в Україні - Надійна Логістика Ваших Вантажів</t>
@@ -307,7 +307,7 @@
     <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_brokerage_services_cost</t>
+    <t>https://t-h-logistics.com/ua/customs_brokerage_services_cost</t>
   </si>
   <si>
     <t>Вартість Послуг Митного Брокера в Україні: Професійна Допомога та Оптимізація ЗЕД</t>
@@ -319,7 +319,7 @@
     <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker</t>
+    <t>https://t-h-logistics.com/ua/customs_broker</t>
   </si>
   <si>
     <t>Митний брокер: Професійні послуги в Києві, Одесі та Львові</t>
@@ -334,7 +334,7 @@
     <t>12.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/fqas</t>
+    <t>https://t-h-logistics.com/ua/fqas</t>
   </si>
   <si>
     <t>Запитання, що часто ставляться (FAQs)</t>
@@ -346,7 +346,7 @@
     <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/help</t>
+    <t>https://t-h-logistics.com/ua/help</t>
   </si>
   <si>
     <t>Допомога та Підтримка: Ваш Гід у Світі Доставки та Розмитнення Вантажів</t>
@@ -358,7 +358,7 @@
     <t>служба підтримки, клієнтська підтримка, допомога клієнтам, поширені запитання, контакти служби підтримки, підтримка клієнтів, зворотний зв'язок, допомога в доставці вантажів, консультація клієнтів, технічна підтримка</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/cookies</t>
+    <t>https://t-h-logistics.com/ua/cookies</t>
   </si>
   <si>
     <t>Cookies</t>
@@ -370,7 +370,7 @@
     <t>05.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/terms_conditions</t>
+    <t>https://t-h-logistics.com/ua/terms_conditions</t>
   </si>
   <si>
     <t>Умови використання</t>
@@ -382,7 +382,7 @@
     <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/privacy_policy</t>
+    <t>https://t-h-logistics.com/ua/privacy_policy</t>
   </si>
   <si>
     <t>Політика конфіденційності</t>
@@ -394,7 +394,7 @@
     <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/about_us</t>
+    <t>https://t-h-logistics.com/ua/about_us</t>
   </si>
   <si>
     <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
@@ -406,7 +406,7 @@
     <t>Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів наступними видами транспорту: Авіаперевезення, Авто доставка вантажів, Морські контейнерні перевезення, Митне оформлення вантажів.</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_clearance</t>
+    <t>https://t-h-logistics.com/ua/customs_clearance</t>
   </si>
   <si>
     <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
@@ -418,7 +418,7 @@
     <t>Послуги митного оформлення для бізнесу в Києві, Одесі та Львові. Швидке і точне оформлення документів, розрахунок платежів, супровід вантажів. Надійність і професіоналізм гарантовані!</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/container_delivery</t>
+    <t>https://t-h-logistics.com/ua/container_delivery</t>
   </si>
   <si>
     <t>Морські контейнерні перевезення: Надійність та Економія</t>
@@ -430,7 +430,7 @@
     <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/truck_delivery</t>
+    <t>https://t-h-logistics.com/ua/truck_delivery</t>
   </si>
   <si>
     <t>Авто Перевезення: Надійність та Ефективність у Транспортуванні Вашого вантажу</t>
@@ -445,7 +445,7 @@
     <t>04.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/air_delivery</t>
+    <t>https://t-h-logistics.com/ua/air_delivery</t>
   </si>
   <si>
     <t>Авіаперевезення: швидко, надійно та ефективно</t>
@@ -460,7 +460,7 @@
     <t>Page Seo</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/sea_container_freight_rate</t>
+    <t>https://t-h-logistics.com/ua/sea_container_freight_rate</t>
   </si>
   <si>
     <t>Вартість Перевезення Контейнера Морем: надійні та конкурентоспроможні Тарифи</t>
@@ -472,7 +472,7 @@
     <t>ціна морського перевезення контейнерів, тарифи на морське перевезення, вартість вантажоперевезень морем, розцінки на перевезення морським контейнером, тарифи на контейнерні перевезення</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/container_freight_rate</t>
+    <t>https://t-h-logistics.com/ua/container_freight_rate</t>
   </si>
   <si>
     <t>Фрахт контейнера: Точні ціни та гнучкі умови для вантажоперевезень</t>
@@ -484,7 +484,7 @@
     <t>вартість фрахту морських контейнерів, розцінки на контейнерний фрахт, тарифи на вантажоперевезення контейнерами, ціни на морські перевезення, фрахтові тарифи</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/intermodal_transportation</t>
+    <t>https://t-h-logistics.com/ua/intermodal_transportation</t>
   </si>
   <si>
     <t>Інтермодальні Перевезення: Ефективність і Надійність у Глобальній Логістиці</t>
@@ -496,7 +496,7 @@
     <t>інтермодальні вантажоперевезення, мультимодальні перевезення, комбіновані перевезення, перевезення вантажів різними видами транспорту</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker_services_price</t>
+    <t>https://t-h-logistics.com/ua/customs_broker_services_price</t>
   </si>
   <si>
     <t>Ціни на Послуги Митного Брокера: Прозорість та Ефективність</t>
@@ -511,7 +511,7 @@
     <t>02.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/customs_broker_kyiv</t>
+    <t>https://t-h-logistics.com/ua/customs_broker_kyiv</t>
   </si>
   <si>
     <t>Митний брокер Київ: Ефективна Митна Підтримка для Вашого Бізнесу</t>
@@ -529,7 +529,7 @@
     <t>18.03.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/sections_purchase_sale_agreement</t>
+    <t>https://t-h-logistics.com/ua/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
     <t>Розділи договору купівлі-продажу ЗЕД</t>
@@ -544,7 +544,7 @@
     <t>договір купівлі-продажу, розділи, умови поставки, ціна товару, платежі, ризики, виконання контракту, захист інтересів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/procedure_filling_customs_declaration</t>
+    <t>https://t-h-logistics.com/ua/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
     <t>Порядок заповнення митної декларації - Україна</t>
@@ -559,7 +559,7 @@
     <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_control</t>
+    <t>https://t-h-logistics.com/ua/info/customs_control</t>
   </si>
   <si>
     <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
@@ -574,7 +574,7 @@
     <t>13.03.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_broker_license</t>
+    <t>https://t-h-logistics.com/ua/info/customs_broker_license</t>
   </si>
   <si>
     <t>Ліцензія митного брокера</t>
@@ -586,7 +586,7 @@
     <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_regimes_in_ukraine</t>
+    <t>https://t-h-logistics.com/ua/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
     <t>Митні режими в Україні</t>
@@ -601,7 +601,7 @@
     <t>21.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_accreditation</t>
+    <t>https://t-h-logistics.com/ua/info/customs_accreditation</t>
   </si>
   <si>
     <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
@@ -616,7 +616,7 @@
     <t>акредитація митниця, онлайн акредитація, процедура акредитації, митні процедури, документи для митниці, митні послуги, документи для митниці</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/certificate_of_origin_EUR.1</t>
+    <t>https://t-h-logistics.com/ua/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
     <t>Сертифікат походження EUR.1 (Евро 1 Euro 1)</t>
@@ -631,7 +631,7 @@
     <t>16.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/certificate_of_origin_base</t>
+    <t>https://t-h-logistics.com/ua/info/certificate_of_origin_base</t>
   </si>
   <si>
     <t>Сертифікат походження, основи щодо визначення країни походження</t>
@@ -646,7 +646,7 @@
     <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/example_of_foreign_economic_contract</t>
+    <t>https://t-h-logistics.com/ua/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
     <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
@@ -664,7 +664,7 @@
     <t>15.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_cost</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_cost</t>
   </si>
   <si>
     <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
@@ -679,7 +679,7 @@
     <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_export</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_export</t>
   </si>
   <si>
     <t>Пакет документів для експорту товарів</t>
@@ -694,7 +694,7 @@
     <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_clearance_package_import</t>
+    <t>https://t-h-logistics.com/ua/info/customs_clearance_package_import</t>
   </si>
   <si>
     <t>Пакет документів для імпорту товарів</t>
@@ -712,7 +712,7 @@
     <t>14.12.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/info/customs_useful</t>
+    <t>https://t-h-logistics.com/ua/info/customs_useful</t>
   </si>
   <si>
     <t>Митне оформлення: Ключова інформація та Експертні Поради</t>
@@ -730,7 +730,7 @@
     <t>03.11.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
+    <t>https://t-h-logistics.com/ua/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
   </si>
   <si>
     <t>10 поширених культурних помилок, яких припускаються іноземні бізнесмени в Китаї</t>
@@ -745,7 +745,7 @@
     <t>26.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/kak-raschitat-stoimost-rastamozhki</t>
+    <t>https://t-h-logistics.com/ua/blog/kak-raschitat-stoimost-rastamozhki</t>
   </si>
   <si>
     <t>Як розрахувати вартість розмитнення і дізнатися суму митних платежів на митницю.</t>
@@ -757,7 +757,7 @@
     <t>розрахунок вартості розмитнення, сума митних платежів, митні збори, ПДВ на митниці, митні збори, оформлення вантажу на митниці, імпортні мита, митні платежі, як розрахувати розмитнення, розрахунок митних зборів</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/the-economics-of-low-cost-delivery-services</t>
+    <t>https://t-h-logistics.com/ua/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
     <t>Економіка лоукостерів із доставки вантажів: як авіакомпанії знижують витрати і підвищують доходи.</t>
@@ -772,7 +772,7 @@
     <t>09.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-to-find-the-customs-code-of-goods</t>
+    <t>https://t-h-logistics.com/ua/blog/how-to-find-the-customs-code-of-goods</t>
   </si>
   <si>
     <t>Як підібрати митний код товару</t>
@@ -787,7 +787,7 @@
     <t>05.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
+    <t>https://t-h-logistics.com/ua/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
   </si>
   <si>
     <t>Способи доставки контейнерів з Китаю в Україну</t>
@@ -802,7 +802,7 @@
     <t>03.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
+    <t>https://t-h-logistics.com/ua/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
     <t>Як обрати КАРГО перевізника і отримати багато проблем.</t>
@@ -817,7 +817,7 @@
     <t>30.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+    <t>https://t-h-logistics.com/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
     <t>Як написати запит китайському постачальнику товарів?</t>
@@ -835,7 +835,7 @@
     <t>15.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/blog/searching-for-suppliers-in-china</t>
+    <t>https://t-h-logistics.com/ua/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
     <t>Пошук постачальників у Китаї</t>
@@ -853,7 +853,7 @@
     <t>12.10.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/ukrainian_clothing_producers_vs_second_hand</t>
+    <t>https://t-h-logistics.com/ua/news/ukrainian_clothing_producers_vs_second_hand</t>
   </si>
   <si>
     <t>Українські виробники одягу вимагають обмежити секонд-хенд для підтримки місцевої індустрії</t>
@@ -865,7 +865,7 @@
     <t>український одяг, секонд-хенд, обмеження секонд-хенду, місцеве виробництво, контрабанда, текстиль, одяг</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/customs_violations_17_billion_uah_2024</t>
+    <t>https://t-h-logistics.com/ua/news/customs_violations_17_billion_uah_2024</t>
   </si>
   <si>
     <t>Митні порушення на суму 17 млрд грн: підсумки перших 9 місяців 2024 року</t>
@@ -877,7 +877,7 @@
     <t>митниця, порушення, штрафи, конфіскація, 2024, Україна, товари, правопорушення, стягнення, суд</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/ukraine_customs_progress_european_standards</t>
+    <t>https://t-h-logistics.com/ua/news/ukraine_customs_progress_european_standards</t>
   </si>
   <si>
     <t>Україна здійснює значний прогрес на шляху до європейських митних стандартів</t>
@@ -892,7 +892,7 @@
     <t>28.09.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
+    <t>https://t-h-logistics.com/ua/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
   </si>
   <si>
     <t>Митні платежі України в серпні 2024 року досягли 51,1 млрд грн</t>
@@ -904,7 +904,7 @@
     <t>митні платежі, Україна, серпень 2024, державний бюджет, пільги, оподатковуваний імпорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
+    <t>https://t-h-logistics.com/ua/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
   </si>
   <si>
     <t>Обмеження руху на кордоні з Угорщиною на два тижні</t>
@@ -916,7 +916,7 @@
     <t>кордон, Угорщина, обмеження, Чоп-Загонь, ремонт</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/collision_of_cargo_ship_pallada_near_turkey</t>
+    <t>https://t-h-logistics.com/ua/news/collision_of_cargo_ship_pallada_near_turkey</t>
   </si>
   <si>
     <t>Аварія сухогруза Pallada біля берегів Туреччини: всі деталі інциденту</t>
@@ -928,7 +928,7 @@
     <t>сухогруз Pallada, аварія, Туреччина, рятувальна операція, шторм, наслідки</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/corruption_scandal_msc_odessa_port</t>
+    <t>https://t-h-logistics.com/ua/news/corruption_scandal_msc_odessa_port</t>
   </si>
   <si>
     <t>Корупційний скандал: чому MSC відмовилася від заходу в Одесу</t>
@@ -940,7 +940,7 @@
     <t>MSC, корупція, порт Одеси, затримка вантажів, міжнародна логістика</t>
   </si>
   <si>
-    <t>http://localhost:3000/ua/news/odesa_ports_export_2024</t>
+    <t>https://t-h-logistics.com/ua/news/odesa_ports_export_2024</t>
   </si>
   <si>
     <t>Експорт портів Великої Одеси перевищив 60 мільйонів тонн за 2024 рік</t>
